--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_17_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_17_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-123281.7163819685</v>
+        <v>-124022.179202692</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1462975.848406075</v>
+        <v>1462975.848406073</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>251.0172406307679</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>233.5562907382949</v>
       </c>
       <c r="D11" t="n">
-        <v>222.9664405879703</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>250.2137690395491</v>
       </c>
       <c r="F11" t="n">
-        <v>275.1594447089988</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>283.084518104593</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>24.42685656015396</v>
       </c>
       <c r="I11" t="n">
-        <v>59.42064602642674</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.87283976874608</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>89.18341408247068</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>99.16878122903439</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>196.0356574374223</v>
+        <v>196.0356574374222</v>
       </c>
       <c r="W11" t="n">
-        <v>217.5243676847004</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>238.0144996457564</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>34.81658261715467</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>15.72846453192608</v>
       </c>
       <c r="E12" t="n">
-        <v>25.9284794226883</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>13.35261136067123</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>5.358526637115043</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H12" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>166.6979539789397</v>
+        <v>150.9309638025184</v>
       </c>
       <c r="T12" t="n">
-        <v>67.36632966027156</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U12" t="n">
-        <v>94.20712384475014</v>
+        <v>94.20712384475011</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>101.0839861167126</v>
       </c>
       <c r="W12" t="n">
-        <v>126.284626223569</v>
+        <v>119.9783821282069</v>
       </c>
       <c r="X12" t="n">
-        <v>74.05638417076483</v>
+        <v>74.0563841707648</v>
       </c>
       <c r="Y12" t="n">
-        <v>73.96609474459171</v>
+        <v>73.96609474459169</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.11537914922465</v>
+        <v>48.11537914922462</v>
       </c>
       <c r="C13" t="n">
-        <v>35.53022006591519</v>
+        <v>35.53022006591516</v>
       </c>
       <c r="D13" t="n">
-        <v>16.89887198549971</v>
+        <v>16.89887198549968</v>
       </c>
       <c r="E13" t="n">
-        <v>14.71736161385653</v>
+        <v>14.7173616138565</v>
       </c>
       <c r="F13" t="n">
-        <v>13.7044469902186</v>
+        <v>13.70444699021857</v>
       </c>
       <c r="G13" t="n">
-        <v>36.04936959028126</v>
+        <v>36.04936959028123</v>
       </c>
       <c r="H13" t="n">
-        <v>28.51003926304852</v>
+        <v>28.51003926304849</v>
       </c>
       <c r="I13" t="n">
-        <v>16.96724755892992</v>
+        <v>16.96724755892989</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.4595793843736</v>
+        <v>35.45957938437358</v>
       </c>
       <c r="S13" t="n">
-        <v>88.37870840529487</v>
+        <v>88.37870840529486</v>
       </c>
       <c r="T13" t="n">
-        <v>95.26758743494631</v>
+        <v>95.26758743494628</v>
       </c>
       <c r="U13" t="n">
         <v>154.5901551200256</v>
       </c>
       <c r="V13" t="n">
-        <v>120.4210422911154</v>
+        <v>120.4210422911153</v>
       </c>
       <c r="W13" t="n">
-        <v>154.8063973038784</v>
+        <v>154.8063973038783</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99305435632451</v>
+        <v>93.99305435632448</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.86805231938214</v>
+        <v>86.86805231938212</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>233.5562907382949</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>250.2137690395492</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>275.1594447089989</v>
+        <v>275.1594447089988</v>
       </c>
       <c r="G14" t="n">
         <v>283.0845181045931</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>202.6210018711096</v>
       </c>
       <c r="I14" t="n">
-        <v>59.4206460264268</v>
+        <v>59.42064602642678</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.87283976874613</v>
+        <v>65.87283976874612</v>
       </c>
       <c r="T14" t="n">
-        <v>89.18341408247073</v>
+        <v>89.1834140824707</v>
       </c>
       <c r="U14" t="n">
-        <v>119.5889224048975</v>
+        <v>71.41501941847488</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>196.0356574374223</v>
       </c>
       <c r="W14" t="n">
-        <v>217.5243676847004</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>116.3009103361552</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>34.81658261715472</v>
       </c>
       <c r="C15" t="n">
-        <v>40.99189795560315</v>
+        <v>40.99189795560312</v>
       </c>
       <c r="D15" t="n">
-        <v>15.72846453192616</v>
+        <v>15.72846453192614</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>25.92847942268833</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>13.35261136067126</v>
       </c>
       <c r="G15" t="n">
-        <v>5.3585266371151</v>
+        <v>5.358526637115071</v>
       </c>
       <c r="H15" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S15" t="n">
-        <v>34.98135294622708</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T15" t="n">
-        <v>125.2331451082292</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U15" t="n">
-        <v>94.2071238447502</v>
+        <v>126.662592076157</v>
       </c>
       <c r="V15" t="n">
-        <v>101.0839861167127</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>119.978382128207</v>
       </c>
       <c r="X15" t="n">
-        <v>74.05638417076489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>73.96609474459177</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.11537914922471</v>
+        <v>48.11537914922468</v>
       </c>
       <c r="C16" t="n">
-        <v>35.53022006591524</v>
+        <v>35.53022006591522</v>
       </c>
       <c r="D16" t="n">
-        <v>16.89887198549977</v>
+        <v>16.89887198549974</v>
       </c>
       <c r="E16" t="n">
-        <v>14.71736161385658</v>
+        <v>14.71736161385655</v>
       </c>
       <c r="F16" t="n">
-        <v>13.70444699021866</v>
+        <v>13.70444699021863</v>
       </c>
       <c r="G16" t="n">
-        <v>36.04936959028132</v>
+        <v>36.04936959028129</v>
       </c>
       <c r="H16" t="n">
-        <v>28.51003926304858</v>
+        <v>28.51003926304855</v>
       </c>
       <c r="I16" t="n">
-        <v>16.96724755892998</v>
+        <v>16.96724755892995</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.45957938437366</v>
+        <v>35.45957938437364</v>
       </c>
       <c r="S16" t="n">
-        <v>88.37870840529493</v>
+        <v>88.37870840529492</v>
       </c>
       <c r="T16" t="n">
-        <v>95.26758743494636</v>
+        <v>95.26758743494634</v>
       </c>
       <c r="U16" t="n">
-        <v>154.5901551200257</v>
+        <v>154.5901551200256</v>
       </c>
       <c r="V16" t="n">
         <v>120.4210422911154</v>
@@ -1828,10 +1828,10 @@
         <v>154.8063973038784</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99305435632456</v>
+        <v>93.99305435632454</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.8680523193822</v>
+        <v>86.86805231938217</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>144.5508808461439</v>
       </c>
       <c r="F17" t="n">
-        <v>169.4965565155933</v>
+        <v>169.4965565155935</v>
       </c>
       <c r="G17" t="n">
         <v>177.4216299111878</v>
@@ -1910,7 +1910,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y17" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299361</v>
       </c>
     </row>
     <row r="18">
@@ -1923,25 +1923,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H18" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>32.40289633577017</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1980,13 +1980,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>58.9862332799952</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>14.31549393480171</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>35.01183638550108</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>49.1435091104731</v>
       </c>
       <c r="X19" t="n">
-        <v>180.4328844084324</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.92603421149225</v>
+        <v>13.92603421149224</v>
       </c>
       <c r="V20" t="n">
         <v>90.37276924401701</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2166,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>13.47724112652944</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T21" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>120.7207870962202</v>
       </c>
       <c r="W21" t="n">
-        <v>14.31549393480171</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2281,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>113.1122544509811</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>48.92726692662036</v>
       </c>
       <c r="V22" t="n">
-        <v>195.1910385061425</v>
+        <v>14.7581540977101</v>
       </c>
       <c r="W22" t="n">
         <v>49.1435091104731</v>
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2415,7 +2415,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>154.390571216754</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.532269922074587</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>33.99892176186324</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>14.7581540977101</v>
       </c>
       <c r="W25" t="n">
-        <v>49.1435091104731</v>
+        <v>49.74441333696815</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>22.66443870986373</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2649,10 +2649,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S27" t="n">
         <v>166.6979539789397</v>
       </c>
       <c r="T27" t="n">
-        <v>49.0388704145322</v>
+        <v>159.8389213724184</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9237248774628</v>
+        <v>75.87966459901078</v>
       </c>
       <c r="V27" t="n">
-        <v>166.7619963378858</v>
+        <v>82.75652687097326</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>55.72892492502547</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>55.63863549885235</v>
       </c>
     </row>
     <row r="28">
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.13212013863424</v>
+        <v>17.13212013863425</v>
       </c>
       <c r="S28" t="n">
-        <v>70.05124915955551</v>
+        <v>70.05124915955552</v>
       </c>
       <c r="T28" t="n">
         <v>76.94012818920694</v>
@@ -2810,7 +2810,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I29" t="n">
-        <v>41.09318678068738</v>
+        <v>41.09318678068739</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.54538052300672</v>
+        <v>47.54538052300673</v>
       </c>
       <c r="T29" t="n">
         <v>70.85595483673131</v>
@@ -2868,28 +2868,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16.48912337141533</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>22.66443870986373</v>
+        <v>128.4896417826818</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I30" t="n">
-        <v>51.28195825436175</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2925,16 +2925,16 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9237248774628</v>
+        <v>75.87966459901078</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>82.75652687097326</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>55.72892492502547</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>55.63863549885235</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.13212013863424</v>
+        <v>17.13212013863425</v>
       </c>
       <c r="S31" t="n">
-        <v>70.05124915955551</v>
+        <v>70.05124915955552</v>
       </c>
       <c r="T31" t="n">
         <v>76.94012818920694</v>
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>232.6897813850286</v>
+        <v>232.6897813850285</v>
       </c>
       <c r="C32" t="n">
-        <v>215.2288314925556</v>
+        <v>215.2288314925555</v>
       </c>
       <c r="D32" t="n">
-        <v>204.638981342231</v>
+        <v>204.6389813422309</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8863097938098</v>
+        <v>231.8863097938097</v>
       </c>
       <c r="F32" t="n">
-        <v>256.8319854632595</v>
+        <v>256.8319854632594</v>
       </c>
       <c r="G32" t="n">
         <v>264.7570588588537</v>
@@ -3047,7 +3047,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I32" t="n">
-        <v>41.0931867806874</v>
+        <v>41.09318678068735</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.54538052300674</v>
+        <v>47.54538052300668</v>
       </c>
       <c r="T32" t="n">
-        <v>70.85595483673134</v>
+        <v>70.85595483673129</v>
       </c>
       <c r="U32" t="n">
-        <v>101.2614631591582</v>
+        <v>101.2614631591581</v>
       </c>
       <c r="V32" t="n">
         <v>177.7081981916829</v>
@@ -3092,10 +3092,10 @@
         <v>199.196908438961</v>
       </c>
       <c r="X32" t="n">
-        <v>219.6870404000171</v>
+        <v>219.687040400017</v>
       </c>
       <c r="Y32" t="n">
-        <v>236.1938783776016</v>
+        <v>236.1938783776015</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>99.85741342040342</v>
+        <v>33.30749576683604</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3114,7 +3114,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>7.601020176948907</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>16.65389370048769</v>
+        <v>16.65389370048764</v>
       </c>
       <c r="T33" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9237248774628</v>
+        <v>75.87966459901075</v>
       </c>
       <c r="V33" t="n">
-        <v>82.75652687097329</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>55.7289249250255</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>55.63863549885238</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.78791990348532</v>
+        <v>29.78791990348526</v>
       </c>
       <c r="C34" t="n">
-        <v>17.20276082017585</v>
+        <v>17.2027608201758</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>17.72191034454193</v>
+        <v>17.72191034454187</v>
       </c>
       <c r="H34" t="n">
-        <v>10.18258001730919</v>
+        <v>10.18258001730913</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.13212013863427</v>
+        <v>17.13212013863422</v>
       </c>
       <c r="S34" t="n">
-        <v>70.05124915955554</v>
+        <v>70.0512491595555</v>
       </c>
       <c r="T34" t="n">
-        <v>76.94012818920697</v>
+        <v>76.94012818920692</v>
       </c>
       <c r="U34" t="n">
-        <v>136.2626958742863</v>
+        <v>136.2626958742862</v>
       </c>
       <c r="V34" t="n">
         <v>102.093583045376</v>
@@ -3250,10 +3250,10 @@
         <v>136.478938058139</v>
       </c>
       <c r="X34" t="n">
-        <v>75.66559511058517</v>
+        <v>75.66559511058512</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.54059307364281</v>
+        <v>68.54059307364275</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C35" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448895</v>
       </c>
       <c r="D35" t="n">
-        <v>117.3035523945651</v>
+        <v>117.3035523945649</v>
       </c>
       <c r="E35" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F35" t="n">
-        <v>169.4965565155935</v>
+        <v>169.4965565155934</v>
       </c>
       <c r="G35" t="n">
-        <v>177.4216299111878</v>
+        <v>177.4216299111877</v>
       </c>
       <c r="H35" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770418</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.92603421149224</v>
+        <v>13.92603421149212</v>
       </c>
       <c r="V35" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401689</v>
       </c>
       <c r="W35" t="n">
-        <v>111.8614794912951</v>
+        <v>111.861479491295</v>
       </c>
       <c r="X35" t="n">
-        <v>132.3516114523511</v>
+        <v>132.351611452351</v>
       </c>
       <c r="Y35" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3354,16 +3354,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H36" t="n">
-        <v>4.874309141389352</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>154.3905712167535</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>48.92726692662036</v>
+        <v>229.360151335053</v>
       </c>
       <c r="V37" t="n">
-        <v>14.7581540977101</v>
+        <v>14.75815409770999</v>
       </c>
       <c r="W37" t="n">
-        <v>229.5763935189055</v>
+        <v>49.14350911047299</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C38" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D38" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E38" t="n">
         <v>144.5508808461439</v>
@@ -3518,7 +3518,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H38" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770426</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.92603421149224</v>
+        <v>13.92603421149221</v>
       </c>
       <c r="V38" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401698</v>
       </c>
       <c r="W38" t="n">
         <v>111.8614794912951</v>
@@ -3588,13 +3588,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>109.6433667609296</v>
@@ -3630,25 +3630,25 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S39" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>219.7983737074111</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>14.31549393480168</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.255922608791126</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3703,28 +3703,28 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>113.1122544509812</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.92726692662036</v>
+        <v>48.92726692662033</v>
       </c>
       <c r="V40" t="n">
-        <v>14.7581540977101</v>
+        <v>14.75815409771008</v>
       </c>
       <c r="W40" t="n">
-        <v>49.1435091104731</v>
+        <v>49.14350911047308</v>
       </c>
       <c r="X40" t="n">
-        <v>180.4328844084324</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3819,25 +3819,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>53.64768061201882</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,19 +3870,19 @@
         <v>166.6979539789397</v>
       </c>
       <c r="T42" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>5.023709762279489</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V42" t="n">
-        <v>11.90057203424197</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>181.0601242381205</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>52.78001849184792</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3940,10 +3940,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.32062995745122</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>120.1006484492991</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -4053,28 +4053,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>68.10499312424007</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4107,13 +4107,13 @@
         <v>166.6979539789397</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U45" t="n">
-        <v>185.3252426690423</v>
+        <v>5.02370976227946</v>
       </c>
       <c r="V45" t="n">
-        <v>11.90057203424195</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4186,13 +4186,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.084173352475625</v>
+        <v>58.8641918443236</v>
       </c>
       <c r="U46" t="n">
         <v>65.40674103755494</v>
       </c>
       <c r="V46" t="n">
-        <v>151.338276657944</v>
+        <v>31.23762820864468</v>
       </c>
       <c r="W46" t="n">
         <v>65.62298322140768</v>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>593.6122215420107</v>
+        <v>829.7080832785716</v>
       </c>
       <c r="C11" t="n">
-        <v>593.6122215420107</v>
+        <v>593.7926380883747</v>
       </c>
       <c r="D11" t="n">
-        <v>368.393594685475</v>
+        <v>593.7926380883747</v>
       </c>
       <c r="E11" t="n">
-        <v>368.393594685475</v>
+        <v>341.0514572403451</v>
       </c>
       <c r="F11" t="n">
-        <v>90.45476164608223</v>
+        <v>341.0514572403451</v>
       </c>
       <c r="G11" t="n">
-        <v>90.45476164608223</v>
+        <v>55.107499558938</v>
       </c>
       <c r="H11" t="n">
-        <v>90.45476164608223</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I11" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J11" t="n">
-        <v>60.75260108020956</v>
+        <v>60.75260108020959</v>
       </c>
       <c r="K11" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326557</v>
       </c>
       <c r="L11" t="n">
         <v>485.3806706550283</v>
       </c>
       <c r="M11" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N11" t="n">
         <v>1084.019791121359</v>
@@ -5066,25 +5066,25 @@
         <v>1521.6953536967</v>
       </c>
       <c r="S11" t="n">
-        <v>1455.157131708067</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T11" t="n">
-        <v>1365.072875059107</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U11" t="n">
-        <v>1264.902388969173</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="V11" t="n">
-        <v>1066.886573375817</v>
+        <v>1323.679538103344</v>
       </c>
       <c r="W11" t="n">
-        <v>847.1649898559177</v>
+        <v>1323.679538103344</v>
       </c>
       <c r="X11" t="n">
-        <v>847.1649898559177</v>
+        <v>1083.260851592479</v>
       </c>
       <c r="Y11" t="n">
-        <v>847.1649898559177</v>
+        <v>1083.260851592479</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>509.6627441793468</v>
+        <v>665.0060121636859</v>
       </c>
       <c r="C12" t="n">
-        <v>335.2097148982198</v>
+        <v>490.5529828825589</v>
       </c>
       <c r="D12" t="n">
-        <v>186.2753052369685</v>
+        <v>474.6656449715224</v>
       </c>
       <c r="E12" t="n">
-        <v>160.0849219817278</v>
+        <v>315.4281899660669</v>
       </c>
       <c r="F12" t="n">
-        <v>146.5974357588276</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="G12" t="n">
-        <v>141.1847825900245</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H12" t="n">
         <v>30.43390707393399</v>
@@ -5118,25 +5118,25 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J12" t="n">
-        <v>54.7981338372213</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K12" t="n">
-        <v>54.7981338372213</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L12" t="n">
-        <v>223.1030253215075</v>
+        <v>486.3521110234744</v>
       </c>
       <c r="M12" t="n">
-        <v>599.7226253614407</v>
+        <v>496.4109802811681</v>
       </c>
       <c r="N12" t="n">
-        <v>976.3422254013739</v>
+        <v>873.0305803211013</v>
       </c>
       <c r="O12" t="n">
-        <v>1288.313760533885</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P12" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q12" t="n">
         <v>1521.6953536967</v>
@@ -5145,25 +5145,25 @@
         <v>1521.6953536967</v>
       </c>
       <c r="S12" t="n">
-        <v>1353.313582000801</v>
+        <v>1369.239834704257</v>
       </c>
       <c r="T12" t="n">
-        <v>1285.266784364163</v>
+        <v>1168.145965317404</v>
       </c>
       <c r="U12" t="n">
-        <v>1190.10807340987</v>
+        <v>1072.987254363111</v>
       </c>
       <c r="V12" t="n">
-        <v>954.9559651781274</v>
+        <v>970.8822178815831</v>
       </c>
       <c r="W12" t="n">
-        <v>827.3957366694718</v>
+        <v>849.6919329035962</v>
       </c>
       <c r="X12" t="n">
-        <v>752.5913082141539</v>
+        <v>774.8875044482783</v>
       </c>
       <c r="Y12" t="n">
-        <v>677.8780811994147</v>
+        <v>700.1742774335391</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.4516414858024</v>
+        <v>194.4516414858022</v>
       </c>
       <c r="C13" t="n">
-        <v>158.5625303081103</v>
+        <v>158.5625303081102</v>
       </c>
       <c r="D13" t="n">
-        <v>141.4929626459894</v>
+        <v>141.4929626459893</v>
       </c>
       <c r="E13" t="n">
-        <v>126.6269408138111</v>
+        <v>126.626940813811</v>
       </c>
       <c r="F13" t="n">
-        <v>112.7840650661155</v>
+        <v>112.7840650661154</v>
       </c>
       <c r="G13" t="n">
-        <v>76.37056042946777</v>
+        <v>76.37056042946772</v>
       </c>
       <c r="H13" t="n">
-        <v>47.572540971843</v>
+        <v>47.57254097184298</v>
       </c>
       <c r="I13" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J13" t="n">
-        <v>30.43390707393399</v>
+        <v>84.15679020220485</v>
       </c>
       <c r="K13" t="n">
-        <v>164.6670499418627</v>
+        <v>218.3899330701336</v>
       </c>
       <c r="L13" t="n">
-        <v>355.4987457100908</v>
+        <v>409.2216288383618</v>
       </c>
       <c r="M13" t="n">
-        <v>560.0046495552824</v>
+        <v>613.7275326835534</v>
       </c>
       <c r="N13" t="n">
-        <v>768.1830836298229</v>
+        <v>821.9059667580939</v>
       </c>
       <c r="O13" t="n">
-        <v>862.8204075624639</v>
+        <v>877.7311657640607</v>
       </c>
       <c r="P13" t="n">
         <v>1017.467262206713</v>
@@ -5224,25 +5224,25 @@
         <v>1045.401516617309</v>
       </c>
       <c r="S13" t="n">
-        <v>956.1300939856984</v>
+        <v>956.130093985698</v>
       </c>
       <c r="T13" t="n">
-        <v>859.9002076877729</v>
+        <v>859.9002076877724</v>
       </c>
       <c r="U13" t="n">
-        <v>703.7485358493632</v>
+        <v>703.7485358493627</v>
       </c>
       <c r="V13" t="n">
-        <v>582.1111193936911</v>
+        <v>582.1111193936907</v>
       </c>
       <c r="W13" t="n">
-        <v>425.7410211069452</v>
+        <v>425.7410211069449</v>
       </c>
       <c r="X13" t="n">
-        <v>330.7985419591427</v>
+        <v>330.7985419591424</v>
       </c>
       <c r="Y13" t="n">
-        <v>243.0530345658273</v>
+        <v>243.0530345658271</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>907.0787332149117</v>
+        <v>1094.920676214766</v>
       </c>
       <c r="C14" t="n">
-        <v>907.0787332149117</v>
+        <v>859.0052310245686</v>
       </c>
       <c r="D14" t="n">
-        <v>907.0787332149117</v>
+        <v>859.0052310245686</v>
       </c>
       <c r="E14" t="n">
-        <v>654.3375523668822</v>
+        <v>859.0052310245686</v>
       </c>
       <c r="F14" t="n">
-        <v>376.3987193274894</v>
+        <v>581.0663979851759</v>
       </c>
       <c r="G14" t="n">
-        <v>90.45476164608229</v>
+        <v>295.1224403037687</v>
       </c>
       <c r="H14" t="n">
-        <v>90.45476164608229</v>
+        <v>90.45476164608226</v>
       </c>
       <c r="I14" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J14" t="n">
-        <v>60.75260108020962</v>
+        <v>60.7526010802095</v>
       </c>
       <c r="K14" t="n">
         <v>226.9372683326557</v>
       </c>
       <c r="L14" t="n">
-        <v>485.3806706550284</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M14" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N14" t="n">
         <v>1084.019791121359</v>
@@ -5306,22 +5306,22 @@
         <v>1455.157131708067</v>
       </c>
       <c r="T14" t="n">
-        <v>1365.072875059107</v>
+        <v>1365.072875059106</v>
       </c>
       <c r="U14" t="n">
-        <v>1244.275983741029</v>
+        <v>1292.936491808121</v>
       </c>
       <c r="V14" t="n">
-        <v>1244.275983741029</v>
+        <v>1094.920676214766</v>
       </c>
       <c r="W14" t="n">
-        <v>1024.554400221129</v>
+        <v>1094.920676214766</v>
       </c>
       <c r="X14" t="n">
-        <v>907.0787332149117</v>
+        <v>1094.920676214766</v>
       </c>
       <c r="Y14" t="n">
-        <v>907.0787332149117</v>
+        <v>1094.920676214766</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>590.628430724919</v>
+        <v>132.8177251628268</v>
       </c>
       <c r="C15" t="n">
-        <v>549.2224731940067</v>
+        <v>91.4117676319146</v>
       </c>
       <c r="D15" t="n">
-        <v>533.3351352829702</v>
+        <v>75.5244297208781</v>
       </c>
       <c r="E15" t="n">
-        <v>374.0976802775147</v>
+        <v>49.33404646563736</v>
       </c>
       <c r="F15" t="n">
-        <v>227.5631223043996</v>
+        <v>35.8465602427371</v>
       </c>
       <c r="G15" t="n">
-        <v>222.1504691355965</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H15" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I15" t="n">
         <v>30.43390707393399</v>
@@ -5367,40 +5367,40 @@
         <v>887.3359378266948</v>
       </c>
       <c r="N15" t="n">
-        <v>1263.955537866628</v>
+        <v>976.342225401374</v>
       </c>
       <c r="O15" t="n">
-        <v>1263.955537866628</v>
+        <v>1288.313760533885</v>
       </c>
       <c r="P15" t="n">
-        <v>1418.383708616427</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="Q15" t="n">
         <v>1521.6953536967</v>
       </c>
       <c r="R15" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S15" t="n">
-        <v>1486.360653751016</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T15" t="n">
-        <v>1359.862527379067</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U15" t="n">
-        <v>1264.703816424774</v>
+        <v>939.9401826128965</v>
       </c>
       <c r="V15" t="n">
-        <v>1162.598779943246</v>
+        <v>704.7880743811537</v>
       </c>
       <c r="W15" t="n">
-        <v>908.3614232150442</v>
+        <v>583.5977894031669</v>
       </c>
       <c r="X15" t="n">
-        <v>833.5569947597261</v>
+        <v>375.746289197634</v>
       </c>
       <c r="Y15" t="n">
-        <v>758.843767744987</v>
+        <v>167.9859904326801</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.4516414858028</v>
+        <v>194.4516414858026</v>
       </c>
       <c r="C16" t="n">
-        <v>158.5625303081107</v>
+        <v>158.5625303081105</v>
       </c>
       <c r="D16" t="n">
-        <v>141.4929626459897</v>
+        <v>141.4929626459895</v>
       </c>
       <c r="E16" t="n">
-        <v>126.6269408138113</v>
+        <v>126.6269408138112</v>
       </c>
       <c r="F16" t="n">
-        <v>112.7840650661157</v>
+        <v>112.7840650661156</v>
       </c>
       <c r="G16" t="n">
-        <v>76.37056042946789</v>
+        <v>76.37056042946783</v>
       </c>
       <c r="H16" t="n">
-        <v>47.57254097184306</v>
+        <v>47.57254097184303</v>
       </c>
       <c r="I16" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J16" t="n">
-        <v>84.15679020220477</v>
+        <v>69.24603200060864</v>
       </c>
       <c r="K16" t="n">
-        <v>218.3899330701334</v>
+        <v>203.4791748685373</v>
       </c>
       <c r="L16" t="n">
-        <v>327.6634469788889</v>
+        <v>263.9114356143799</v>
       </c>
       <c r="M16" t="n">
-        <v>532.1693508240805</v>
+        <v>468.4173394595715</v>
       </c>
       <c r="N16" t="n">
-        <v>740.3477848986209</v>
+        <v>676.5957735341119</v>
       </c>
       <c r="O16" t="n">
-        <v>926.5724189269733</v>
+        <v>862.8204075624643</v>
       </c>
       <c r="P16" t="n">
-        <v>1081.219273571223</v>
+        <v>1017.467262206714</v>
       </c>
       <c r="Q16" t="n">
         <v>1081.219273571223</v>
@@ -5461,25 +5461,25 @@
         <v>1045.40151661731</v>
       </c>
       <c r="S16" t="n">
-        <v>956.1300939856991</v>
+        <v>956.1300939856987</v>
       </c>
       <c r="T16" t="n">
-        <v>859.9002076877734</v>
+        <v>859.9002076877731</v>
       </c>
       <c r="U16" t="n">
-        <v>703.7485358493637</v>
+        <v>703.7485358493634</v>
       </c>
       <c r="V16" t="n">
-        <v>582.1111193936916</v>
+        <v>582.1111193936913</v>
       </c>
       <c r="W16" t="n">
-        <v>425.7410211069458</v>
+        <v>425.7410211069455</v>
       </c>
       <c r="X16" t="n">
-        <v>330.7985419591432</v>
+        <v>330.7985419591429</v>
       </c>
       <c r="Y16" t="n">
-        <v>243.0530345658278</v>
+        <v>243.0530345658276</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5498,10 @@
         <v>624.8047969230545</v>
       </c>
       <c r="E17" t="n">
-        <v>478.7938061693737</v>
+        <v>478.7938061693738</v>
       </c>
       <c r="F17" t="n">
-        <v>307.58516322433</v>
+        <v>307.5851632243298</v>
       </c>
       <c r="G17" t="n">
         <v>128.3713956372717</v>
@@ -5513,7 +5513,7 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J17" t="n">
-        <v>60.75260108020956</v>
+        <v>60.75260108020955</v>
       </c>
       <c r="K17" t="n">
         <v>226.9372683326556</v>
@@ -5522,7 +5522,7 @@
         <v>485.3806706550283</v>
       </c>
       <c r="M17" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N17" t="n">
         <v>1084.019791121359</v>
@@ -5552,7 +5552,7 @@
         <v>1416.343026973963</v>
       </c>
       <c r="W17" t="n">
-        <v>1303.351633548412</v>
+        <v>1303.351633548413</v>
       </c>
       <c r="X17" t="n">
         <v>1169.663137131896</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>611.1067795055178</v>
+        <v>656.3302529517334</v>
       </c>
       <c r="C18" t="n">
-        <v>436.6537502243908</v>
+        <v>656.3302529517334</v>
       </c>
       <c r="D18" t="n">
-        <v>287.7193405631396</v>
+        <v>507.3958432904822</v>
       </c>
       <c r="E18" t="n">
-        <v>287.7193405631396</v>
+        <v>348.1583882850267</v>
       </c>
       <c r="F18" t="n">
-        <v>141.1847825900245</v>
+        <v>201.6238303119116</v>
       </c>
       <c r="G18" t="n">
-        <v>141.1847825900245</v>
+        <v>63.16410539289376</v>
       </c>
       <c r="H18" t="n">
-        <v>30.43390707393399</v>
+        <v>63.16410539289376</v>
       </c>
       <c r="I18" t="n">
         <v>30.43390707393399</v>
@@ -5598,13 +5598,13 @@
         <v>223.0613211674321</v>
       </c>
       <c r="L18" t="n">
-        <v>496.410980281168</v>
+        <v>496.4109802811681</v>
       </c>
       <c r="M18" t="n">
-        <v>496.410980281168</v>
+        <v>873.0305803211013</v>
       </c>
       <c r="N18" t="n">
-        <v>873.0305803211012</v>
+        <v>873.0305803211013</v>
       </c>
       <c r="O18" t="n">
         <v>1185.002115453613</v>
@@ -5616,28 +5616,28 @@
         <v>1521.6953536967</v>
       </c>
       <c r="R18" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S18" t="n">
-        <v>1268.976064197888</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T18" t="n">
-        <v>1268.976064197888</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U18" t="n">
-        <v>1268.976064197888</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="V18" t="n">
-        <v>1209.394010379711</v>
+        <v>1286.543245464957</v>
       </c>
       <c r="W18" t="n">
-        <v>1194.933915496073</v>
+        <v>1032.305888736755</v>
       </c>
       <c r="X18" t="n">
-        <v>987.0824152905398</v>
+        <v>1032.305888736755</v>
       </c>
       <c r="Y18" t="n">
-        <v>779.3221165255859</v>
+        <v>824.5455899718015</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.43390707393399</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="C19" t="n">
-        <v>30.43390707393399</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="D19" t="n">
-        <v>30.43390707393399</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="E19" t="n">
-        <v>30.43390707393399</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="F19" t="n">
         <v>30.43390707393399</v>
@@ -5674,49 +5674,49 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K19" t="n">
-        <v>34.26761491947719</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L19" t="n">
-        <v>94.69987566531981</v>
+        <v>94.69987566531979</v>
       </c>
       <c r="M19" t="n">
         <v>168.8063444881259</v>
       </c>
       <c r="N19" t="n">
-        <v>246.5853435402809</v>
+        <v>246.5853435402808</v>
       </c>
       <c r="O19" t="n">
-        <v>302.4105425462478</v>
+        <v>302.4105425462477</v>
       </c>
       <c r="P19" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="Q19" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="R19" t="n">
-        <v>326.6579621681118</v>
+        <v>291.2924708696258</v>
       </c>
       <c r="S19" t="n">
-        <v>326.6579621681118</v>
+        <v>291.2924708696258</v>
       </c>
       <c r="T19" t="n">
-        <v>326.6579621681118</v>
+        <v>291.2924708696258</v>
       </c>
       <c r="U19" t="n">
-        <v>277.2364804240508</v>
+        <v>241.8709891255648</v>
       </c>
       <c r="V19" t="n">
-        <v>262.3292540627274</v>
+        <v>226.9637627642414</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6893458703304</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="X19" t="n">
-        <v>30.43390707393399</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="Y19" t="n">
-        <v>30.43390707393399</v>
+        <v>177.3238545718444</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>30.43390707393399</v>
       </c>
       <c r="I20" t="n">
-        <v>30.43390707393397</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J20" t="n">
-        <v>60.75260108020953</v>
+        <v>60.75260108020959</v>
       </c>
       <c r="K20" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326557</v>
       </c>
       <c r="L20" t="n">
         <v>485.3806706550283</v>
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>621.4098248497221</v>
+        <v>315.6378118711515</v>
       </c>
       <c r="C21" t="n">
-        <v>446.9567955685951</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="D21" t="n">
-        <v>446.9567955685951</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="E21" t="n">
-        <v>287.7193405631396</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="F21" t="n">
         <v>141.1847825900245</v>
@@ -5829,52 +5829,52 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J21" t="n">
-        <v>30.43390707393399</v>
+        <v>54.7981338372213</v>
       </c>
       <c r="K21" t="n">
-        <v>30.43390707393399</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L21" t="n">
-        <v>318.0889236932636</v>
+        <v>510.7163377867617</v>
       </c>
       <c r="M21" t="n">
-        <v>496.410980281168</v>
+        <v>887.3359378266948</v>
       </c>
       <c r="N21" t="n">
-        <v>873.0305803211012</v>
+        <v>1209.723818564188</v>
       </c>
       <c r="O21" t="n">
-        <v>1185.002115453613</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="P21" t="n">
-        <v>1418.383708616427</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="Q21" t="n">
         <v>1521.6953536967</v>
       </c>
       <c r="R21" t="n">
-        <v>1508.081978821417</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S21" t="n">
-        <v>1508.081978821417</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T21" t="n">
-        <v>1306.988109434565</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U21" t="n">
-        <v>1078.782326730057</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="V21" t="n">
-        <v>843.6302184983141</v>
+        <v>945.9420058249539</v>
       </c>
       <c r="W21" t="n">
-        <v>829.170123614676</v>
+        <v>691.7046490967523</v>
       </c>
       <c r="X21" t="n">
-        <v>829.170123614676</v>
+        <v>483.8531488912195</v>
       </c>
       <c r="Y21" t="n">
-        <v>621.4098248497221</v>
+        <v>483.8531488912195</v>
       </c>
     </row>
     <row r="22">
@@ -5911,37 +5911,37 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K22" t="n">
-        <v>34.26761491947719</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L22" t="n">
-        <v>94.69987566531981</v>
+        <v>94.69987566531979</v>
       </c>
       <c r="M22" t="n">
         <v>168.8063444881259</v>
       </c>
       <c r="N22" t="n">
-        <v>246.5853435402809</v>
+        <v>246.5853435402808</v>
       </c>
       <c r="O22" t="n">
-        <v>302.4105425462478</v>
+        <v>302.4105425462477</v>
       </c>
       <c r="P22" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="Q22" t="n">
-        <v>326.6579621681118</v>
+        <v>258.6573258474539</v>
       </c>
       <c r="R22" t="n">
-        <v>326.6579621681118</v>
+        <v>144.4025233717154</v>
       </c>
       <c r="S22" t="n">
-        <v>326.6579621681118</v>
+        <v>144.4025233717154</v>
       </c>
       <c r="T22" t="n">
-        <v>326.6579621681118</v>
+        <v>144.4025233717154</v>
       </c>
       <c r="U22" t="n">
-        <v>277.2364804240508</v>
+        <v>94.98104162765442</v>
       </c>
       <c r="V22" t="n">
         <v>80.07381526633108</v>
@@ -5990,19 +5990,19 @@
         <v>60.75260108020956</v>
       </c>
       <c r="K23" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326561</v>
       </c>
       <c r="L23" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550288</v>
       </c>
       <c r="M23" t="n">
-        <v>789.5552979241023</v>
+        <v>789.5552979241028</v>
       </c>
       <c r="N23" t="n">
-        <v>1084.019791121359</v>
+        <v>1084.01979112136</v>
       </c>
       <c r="O23" t="n">
-        <v>1316.886624186929</v>
+        <v>1316.88662418693</v>
       </c>
       <c r="P23" t="n">
         <v>1477.958695736267</v>
@@ -6020,10 +6020,10 @@
         <v>1521.6953536967</v>
       </c>
       <c r="U23" t="n">
-        <v>1507.62865247297</v>
+        <v>1507.628652472971</v>
       </c>
       <c r="V23" t="n">
-        <v>1416.343026973963</v>
+        <v>1416.343026973964</v>
       </c>
       <c r="W23" t="n">
         <v>1303.351633548413</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>575.1134751434087</v>
+        <v>989.7696459755631</v>
       </c>
       <c r="C24" t="n">
-        <v>575.1134751434087</v>
+        <v>815.3166166944361</v>
       </c>
       <c r="D24" t="n">
-        <v>426.1790654821574</v>
+        <v>666.3822070331848</v>
       </c>
       <c r="E24" t="n">
-        <v>426.1790654821574</v>
+        <v>507.1447520277294</v>
       </c>
       <c r="F24" t="n">
-        <v>279.6445075090423</v>
+        <v>360.6101940546143</v>
       </c>
       <c r="G24" t="n">
-        <v>141.1847825900245</v>
+        <v>222.1504691355965</v>
       </c>
       <c r="H24" t="n">
-        <v>30.433907073934</v>
+        <v>111.399593619506</v>
       </c>
       <c r="I24" t="n">
         <v>30.433907073934</v>
@@ -6075,43 +6075,43 @@
         <v>510.7163377867617</v>
       </c>
       <c r="M24" t="n">
-        <v>887.3359378266949</v>
+        <v>729.7925734439826</v>
       </c>
       <c r="N24" t="n">
-        <v>1263.955537866628</v>
+        <v>1106.412173483916</v>
       </c>
       <c r="O24" t="n">
-        <v>1263.955537866628</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="P24" t="n">
-        <v>1497.337131029442</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q24" t="n">
         <v>1521.6953536967</v>
       </c>
       <c r="R24" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S24" t="n">
-        <v>1268.976064197888</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T24" t="n">
-        <v>1268.976064197888</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U24" t="n">
-        <v>1040.77028149338</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="V24" t="n">
-        <v>1040.77028149338</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="W24" t="n">
-        <v>786.5329247651784</v>
+        <v>1365.745281760585</v>
       </c>
       <c r="X24" t="n">
-        <v>578.6814245596456</v>
+        <v>1365.745281760585</v>
       </c>
       <c r="Y24" t="n">
-        <v>575.1134751434087</v>
+        <v>1157.984982995631</v>
       </c>
     </row>
     <row r="25">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>178.3470006563271</v>
+        <v>30.433907073934</v>
       </c>
       <c r="C25" t="n">
-        <v>178.3470006563271</v>
+        <v>30.433907073934</v>
       </c>
       <c r="D25" t="n">
-        <v>178.3470006563271</v>
+        <v>30.433907073934</v>
       </c>
       <c r="E25" t="n">
         <v>30.433907073934</v>
@@ -6148,7 +6148,7 @@
         <v>30.433907073934</v>
       </c>
       <c r="K25" t="n">
-        <v>34.2676149194772</v>
+        <v>34.26761491947719</v>
       </c>
       <c r="L25" t="n">
         <v>94.69987566531981</v>
@@ -6157,40 +6157,40 @@
         <v>168.8063444881259</v>
       </c>
       <c r="N25" t="n">
-        <v>246.5853435402809</v>
+        <v>246.5853435402808</v>
       </c>
       <c r="O25" t="n">
-        <v>302.4105425462478</v>
+        <v>302.4105425462477</v>
       </c>
       <c r="P25" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="Q25" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="R25" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="S25" t="n">
-        <v>292.3156169541085</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="T25" t="n">
-        <v>292.3156169541085</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="U25" t="n">
-        <v>242.8941352100475</v>
+        <v>277.2364804240507</v>
       </c>
       <c r="V25" t="n">
-        <v>227.9869088487242</v>
+        <v>262.3292540627274</v>
       </c>
       <c r="W25" t="n">
-        <v>178.3470006563271</v>
+        <v>212.0823719041737</v>
       </c>
       <c r="X25" t="n">
-        <v>178.3470006563271</v>
+        <v>212.0823719041737</v>
       </c>
       <c r="Y25" t="n">
-        <v>178.3470006563271</v>
+        <v>212.0823719041737</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1468.184568607515</v>
+        <v>1468.184568607514</v>
       </c>
       <c r="C26" t="n">
         <v>1250.781708514024</v>
       </c>
       <c r="D26" t="n">
-        <v>1044.075666754195</v>
+        <v>1044.075666754194</v>
       </c>
       <c r="E26" t="n">
-        <v>809.8470710028721</v>
+        <v>809.8470710028713</v>
       </c>
       <c r="F26" t="n">
-        <v>550.4208230601857</v>
+        <v>550.4208230601851</v>
       </c>
       <c r="G26" t="n">
-        <v>282.9894504754849</v>
+        <v>282.9894504754843</v>
       </c>
       <c r="H26" t="n">
         <v>96.83435691450495</v>
@@ -6230,7 +6230,7 @@
         <v>548.9166880491198</v>
       </c>
       <c r="L26" t="n">
-        <v>955.9037100471598</v>
+        <v>955.90371004716</v>
       </c>
       <c r="M26" t="n">
         <v>1408.621956991901</v>
@@ -6254,19 +6254,19 @@
         <v>2718.278735061232</v>
       </c>
       <c r="T26" t="n">
-        <v>2646.707063508979</v>
+        <v>2646.707063508978</v>
       </c>
       <c r="U26" t="n">
-        <v>2544.422757287607</v>
+        <v>2544.422757287606</v>
       </c>
       <c r="V26" t="n">
-        <v>2364.919526790958</v>
+        <v>2364.919526790957</v>
       </c>
       <c r="W26" t="n">
-        <v>2163.710528367765</v>
+        <v>2163.710528367764</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.804426953606</v>
+        <v>1941.804426953605</v>
       </c>
       <c r="Y26" t="n">
         <v>1703.224751824715</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>684.485539360012</v>
+        <v>724.6424445747533</v>
       </c>
       <c r="C27" t="n">
-        <v>510.032510078885</v>
+        <v>701.7490721405475</v>
       </c>
       <c r="D27" t="n">
-        <v>361.0981004176337</v>
+        <v>552.8146624792962</v>
       </c>
       <c r="E27" t="n">
-        <v>201.8606454121782</v>
+        <v>393.5772074738406</v>
       </c>
       <c r="F27" t="n">
-        <v>55.32608743906317</v>
+        <v>247.0426495007256</v>
       </c>
       <c r="G27" t="n">
-        <v>55.32608743906317</v>
+        <v>247.0426495007256</v>
       </c>
       <c r="H27" t="n">
-        <v>55.32608743906317</v>
+        <v>136.2917739846351</v>
       </c>
       <c r="I27" t="n">
         <v>55.32608743906317</v>
       </c>
       <c r="J27" t="n">
-        <v>79.69031420235048</v>
+        <v>79.69031420235046</v>
       </c>
       <c r="K27" t="n">
         <v>247.9535015325613</v>
@@ -6327,28 +6327,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R27" t="n">
-        <v>1985.558603119544</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S27" t="n">
-        <v>1817.176831423646</v>
+        <v>1732.839313620732</v>
       </c>
       <c r="T27" t="n">
-        <v>1767.642618883714</v>
+        <v>1571.385857688997</v>
       </c>
       <c r="U27" t="n">
-        <v>1539.436836179206</v>
+        <v>1494.73973183141</v>
       </c>
       <c r="V27" t="n">
-        <v>1370.990375231847</v>
+        <v>1411.147280446588</v>
       </c>
       <c r="W27" t="n">
-        <v>1116.753018503646</v>
+        <v>1156.909923718387</v>
       </c>
       <c r="X27" t="n">
-        <v>1060.461175145034</v>
+        <v>949.058423512854</v>
       </c>
       <c r="Y27" t="n">
-        <v>852.70087638008</v>
+        <v>892.8577815948213</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>92.73818863237895</v>
+        <v>91.3238872447417</v>
       </c>
       <c r="C28" t="n">
-        <v>75.36166255139327</v>
+        <v>73.94736116375601</v>
       </c>
       <c r="D28" t="n">
         <v>75.36166255139327</v>
@@ -6385,49 +6385,49 @@
         <v>127.1931552206159</v>
       </c>
       <c r="K28" t="n">
-        <v>279.5704827418266</v>
+        <v>131.0268630661591</v>
       </c>
       <c r="L28" t="n">
         <v>340.0027434876692</v>
       </c>
       <c r="M28" t="n">
-        <v>414.1092123104753</v>
+        <v>414.1092123104754</v>
       </c>
       <c r="N28" t="n">
-        <v>491.8882113626303</v>
+        <v>640.4318310382978</v>
       </c>
       <c r="O28" t="n">
-        <v>640.1015155499092</v>
+        <v>705.3346378201488</v>
       </c>
       <c r="P28" t="n">
-        <v>812.8925548474407</v>
+        <v>729.5820574420128</v>
       </c>
       <c r="Q28" t="n">
-        <v>812.8925548474407</v>
+        <v>811.4782534598036</v>
       </c>
       <c r="R28" t="n">
-        <v>795.5873829902343</v>
+        <v>794.1730816025972</v>
       </c>
       <c r="S28" t="n">
-        <v>724.8285454553298</v>
+        <v>723.4142440676926</v>
       </c>
       <c r="T28" t="n">
-        <v>647.1112442541107</v>
+        <v>645.6969428664735</v>
       </c>
       <c r="U28" t="n">
-        <v>509.4721575124075</v>
+        <v>508.0578561247702</v>
       </c>
       <c r="V28" t="n">
-        <v>406.3473261534418</v>
+        <v>404.9330247658046</v>
       </c>
       <c r="W28" t="n">
-        <v>268.4898129634024</v>
+        <v>267.0755115757652</v>
       </c>
       <c r="X28" t="n">
-        <v>192.0599189123063</v>
+        <v>190.645617524669</v>
       </c>
       <c r="Y28" t="n">
-        <v>122.8269966156974</v>
+        <v>121.4126952280602</v>
       </c>
     </row>
     <row r="29">
@@ -6443,31 +6443,31 @@
         <v>1250.781708514024</v>
       </c>
       <c r="D29" t="n">
-        <v>1044.075666754194</v>
+        <v>1044.075666754195</v>
       </c>
       <c r="E29" t="n">
-        <v>809.8470710028714</v>
+        <v>809.8470710028716</v>
       </c>
       <c r="F29" t="n">
-        <v>550.4208230601851</v>
+        <v>550.4208230601853</v>
       </c>
       <c r="G29" t="n">
-        <v>282.9894504754843</v>
+        <v>282.9894504754846</v>
       </c>
       <c r="H29" t="n">
-        <v>96.83435691450497</v>
+        <v>96.83435691450498</v>
       </c>
       <c r="I29" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J29" t="n">
-        <v>234.1884011210061</v>
+        <v>234.1884011210058</v>
       </c>
       <c r="K29" t="n">
-        <v>548.9166880491196</v>
+        <v>548.9166880491193</v>
       </c>
       <c r="L29" t="n">
-        <v>955.9037100471596</v>
+        <v>955.9037100471592</v>
       </c>
       <c r="M29" t="n">
         <v>1408.621956991901</v>
@@ -6476,10 +6476,10 @@
         <v>1851.630069864825</v>
       </c>
       <c r="O29" t="n">
-        <v>2233.040522606063</v>
+        <v>2233.040522606062</v>
       </c>
       <c r="P29" t="n">
-        <v>2542.656213831068</v>
+        <v>2542.656213831067</v>
       </c>
       <c r="Q29" t="n">
         <v>2734.936491467169</v>
@@ -6494,7 +6494,7 @@
         <v>2646.707063508978</v>
       </c>
       <c r="U29" t="n">
-        <v>2544.422757287607</v>
+        <v>2544.422757287606</v>
       </c>
       <c r="V29" t="n">
         <v>2364.919526790957</v>
@@ -6503,7 +6503,7 @@
         <v>2163.710528367764</v>
       </c>
       <c r="X29" t="n">
-        <v>1941.804426953606</v>
+        <v>1941.804426953605</v>
       </c>
       <c r="Y29" t="n">
         <v>1703.224751824715</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>685.0020311196365</v>
+        <v>685.0020311196363</v>
       </c>
       <c r="C30" t="n">
-        <v>662.1086586854307</v>
+        <v>555.2145141674324</v>
       </c>
       <c r="D30" t="n">
-        <v>662.1086586854307</v>
+        <v>406.2801045061811</v>
       </c>
       <c r="E30" t="n">
-        <v>502.8712036799752</v>
+        <v>247.0426495007256</v>
       </c>
       <c r="F30" t="n">
-        <v>356.3366457068602</v>
+        <v>247.0426495007256</v>
       </c>
       <c r="G30" t="n">
-        <v>217.8769207878423</v>
+        <v>247.0426495007256</v>
       </c>
       <c r="H30" t="n">
-        <v>107.1260452717518</v>
+        <v>136.2917739846351</v>
       </c>
       <c r="I30" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J30" t="n">
-        <v>79.69031420235048</v>
+        <v>79.69031420235046</v>
       </c>
       <c r="K30" t="n">
         <v>247.9535015325613</v>
@@ -6573,19 +6573,19 @@
         <v>1531.74544423388</v>
       </c>
       <c r="U30" t="n">
-        <v>1303.539661529372</v>
+        <v>1455.099318376293</v>
       </c>
       <c r="V30" t="n">
-        <v>1068.387553297629</v>
+        <v>1371.506866991471</v>
       </c>
       <c r="W30" t="n">
-        <v>814.1501965694276</v>
+        <v>1117.26951026327</v>
       </c>
       <c r="X30" t="n">
-        <v>757.8583532108161</v>
+        <v>909.4180100577371</v>
       </c>
       <c r="Y30" t="n">
-        <v>701.6577112927833</v>
+        <v>853.2173681397044</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92.73818863237895</v>
+        <v>100.8889674209085</v>
       </c>
       <c r="C31" t="n">
-        <v>75.36166255139327</v>
+        <v>83.51244133992282</v>
       </c>
       <c r="D31" t="n">
-        <v>75.36166255139327</v>
+        <v>83.51244133992282</v>
       </c>
       <c r="E31" t="n">
-        <v>78.93565920695727</v>
+        <v>83.51244133992282</v>
       </c>
       <c r="F31" t="n">
-        <v>83.51244133992283</v>
+        <v>83.51244133992282</v>
       </c>
       <c r="G31" t="n">
-        <v>65.61152179998152</v>
+        <v>65.6115217999815</v>
       </c>
       <c r="H31" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="I31" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J31" t="n">
-        <v>127.1931552206159</v>
+        <v>79.18841951479024</v>
       </c>
       <c r="K31" t="n">
-        <v>131.0268630661591</v>
+        <v>231.5657470360009</v>
       </c>
       <c r="L31" t="n">
-        <v>340.0027434876692</v>
+        <v>440.541627457511</v>
       </c>
       <c r="M31" t="n">
-        <v>414.1092123104754</v>
+        <v>663.1917159559846</v>
       </c>
       <c r="N31" t="n">
-        <v>491.8882113626303</v>
+        <v>740.9707150081396</v>
       </c>
       <c r="O31" t="n">
-        <v>640.1015155499092</v>
+        <v>796.7959140141064</v>
       </c>
       <c r="P31" t="n">
-        <v>812.8925548474407</v>
+        <v>821.0433336359704</v>
       </c>
       <c r="Q31" t="n">
-        <v>812.8925548474407</v>
+        <v>821.0433336359704</v>
       </c>
       <c r="R31" t="n">
-        <v>795.5873829902343</v>
+        <v>803.738161778764</v>
       </c>
       <c r="S31" t="n">
-        <v>724.8285454553298</v>
+        <v>732.9793242438594</v>
       </c>
       <c r="T31" t="n">
-        <v>647.1112442541107</v>
+        <v>655.2620230426403</v>
       </c>
       <c r="U31" t="n">
-        <v>509.4721575124075</v>
+        <v>517.622936300937</v>
       </c>
       <c r="V31" t="n">
-        <v>406.3473261534418</v>
+        <v>414.4981049419714</v>
       </c>
       <c r="W31" t="n">
-        <v>268.4898129634024</v>
+        <v>276.640591751932</v>
       </c>
       <c r="X31" t="n">
-        <v>192.0599189123063</v>
+        <v>200.2106977008359</v>
       </c>
       <c r="Y31" t="n">
-        <v>122.8269966156974</v>
+        <v>130.977775404227</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1468.184568607515</v>
+        <v>1468.184568607514</v>
       </c>
       <c r="C32" t="n">
-        <v>1250.781708514025</v>
+        <v>1250.781708514024</v>
       </c>
       <c r="D32" t="n">
-        <v>1044.075666754195</v>
+        <v>1044.075666754194</v>
       </c>
       <c r="E32" t="n">
-        <v>809.8470710028723</v>
+        <v>809.8470710028714</v>
       </c>
       <c r="F32" t="n">
-        <v>550.420823060186</v>
+        <v>550.4208230601853</v>
       </c>
       <c r="G32" t="n">
-        <v>282.9894504754852</v>
+        <v>282.9894504754849</v>
       </c>
       <c r="H32" t="n">
-        <v>96.83435691450498</v>
+        <v>96.83435691450492</v>
       </c>
       <c r="I32" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J32" t="n">
-        <v>234.1884011210062</v>
+        <v>234.1884011210055</v>
       </c>
       <c r="K32" t="n">
-        <v>548.9166880491197</v>
+        <v>548.9166880491191</v>
       </c>
       <c r="L32" t="n">
-        <v>955.9037100471598</v>
+        <v>955.9037100471593</v>
       </c>
       <c r="M32" t="n">
         <v>1408.621956991901</v>
@@ -6725,25 +6725,25 @@
         <v>2766.304371953158</v>
       </c>
       <c r="S32" t="n">
-        <v>2718.278735061233</v>
+        <v>2718.278735061232</v>
       </c>
       <c r="T32" t="n">
-        <v>2646.707063508979</v>
+        <v>2646.707063508978</v>
       </c>
       <c r="U32" t="n">
-        <v>2544.422757287608</v>
+        <v>2544.422757287606</v>
       </c>
       <c r="V32" t="n">
-        <v>2364.919526790958</v>
+        <v>2364.919526790957</v>
       </c>
       <c r="W32" t="n">
-        <v>2163.710528367765</v>
+        <v>2163.710528367764</v>
       </c>
       <c r="X32" t="n">
-        <v>1941.804426953606</v>
+        <v>1941.804426953605</v>
       </c>
       <c r="Y32" t="n">
-        <v>1703.224751824716</v>
+        <v>1703.224751824715</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>903.9109508246019</v>
+        <v>752.3512939776805</v>
       </c>
       <c r="C33" t="n">
-        <v>729.4579215434749</v>
+        <v>577.8982646965535</v>
       </c>
       <c r="D33" t="n">
-        <v>580.5235118822236</v>
+        <v>428.9638550353023</v>
       </c>
       <c r="E33" t="n">
         <v>421.286056876768</v>
@@ -6774,10 +6774,10 @@
         <v>136.2917739846351</v>
       </c>
       <c r="I33" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J33" t="n">
-        <v>79.69031420235048</v>
+        <v>79.69031420235046</v>
       </c>
       <c r="K33" t="n">
         <v>247.9535015325613</v>
@@ -6801,28 +6801,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R33" t="n">
-        <v>1901.221085316631</v>
+        <v>1985.558603119544</v>
       </c>
       <c r="S33" t="n">
-        <v>1884.398970467653</v>
+        <v>1968.736488270567</v>
       </c>
       <c r="T33" t="n">
-        <v>1683.305101080801</v>
+        <v>1767.642618883714</v>
       </c>
       <c r="U33" t="n">
-        <v>1455.099318376293</v>
+        <v>1690.996493026128</v>
       </c>
       <c r="V33" t="n">
-        <v>1371.506866991471</v>
+        <v>1455.844384794385</v>
       </c>
       <c r="W33" t="n">
-        <v>1117.26951026327</v>
+        <v>1201.607028066183</v>
       </c>
       <c r="X33" t="n">
-        <v>1060.977666904658</v>
+        <v>993.7555278606505</v>
       </c>
       <c r="Y33" t="n">
-        <v>1004.777024986626</v>
+        <v>785.9952290956967</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.32388724474187</v>
+        <v>99.47466603327113</v>
       </c>
       <c r="C34" t="n">
-        <v>73.94736116375616</v>
+        <v>82.09813995228548</v>
       </c>
       <c r="D34" t="n">
-        <v>75.36166255139338</v>
+        <v>83.51244133992276</v>
       </c>
       <c r="E34" t="n">
-        <v>78.93565920695735</v>
+        <v>83.51244133992276</v>
       </c>
       <c r="F34" t="n">
-        <v>83.51244133992289</v>
+        <v>83.51244133992276</v>
       </c>
       <c r="G34" t="n">
-        <v>65.61152179998155</v>
+        <v>65.61152179998147</v>
       </c>
       <c r="H34" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="I34" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J34" t="n">
-        <v>127.1931552206159</v>
+        <v>127.193155220616</v>
       </c>
       <c r="K34" t="n">
-        <v>279.5704827418266</v>
+        <v>131.0268630661592</v>
       </c>
       <c r="L34" t="n">
-        <v>349.0803512635537</v>
+        <v>340.0027434876693</v>
       </c>
       <c r="M34" t="n">
-        <v>423.1868200863598</v>
+        <v>414.1092123104754</v>
       </c>
       <c r="N34" t="n">
-        <v>500.9658191385147</v>
+        <v>491.8882113626304</v>
       </c>
       <c r="O34" t="n">
-        <v>556.7910181444817</v>
+        <v>564.9417969330103</v>
       </c>
       <c r="P34" t="n">
-        <v>729.5820574420131</v>
+        <v>737.7328362305418</v>
       </c>
       <c r="Q34" t="n">
-        <v>811.4782534598039</v>
+        <v>819.6290322483326</v>
       </c>
       <c r="R34" t="n">
-        <v>794.1730816025976</v>
+        <v>802.3238603911263</v>
       </c>
       <c r="S34" t="n">
-        <v>723.4142440676929</v>
+        <v>731.5650228562218</v>
       </c>
       <c r="T34" t="n">
-        <v>645.6969428664738</v>
+        <v>653.8477216550027</v>
       </c>
       <c r="U34" t="n">
-        <v>508.0578561247705</v>
+        <v>516.2086349132995</v>
       </c>
       <c r="V34" t="n">
-        <v>404.9330247658048</v>
+        <v>413.0838035543339</v>
       </c>
       <c r="W34" t="n">
-        <v>267.0755115757654</v>
+        <v>275.2262903642945</v>
       </c>
       <c r="X34" t="n">
-        <v>190.6456175246693</v>
+        <v>198.7963963131984</v>
       </c>
       <c r="Y34" t="n">
-        <v>121.4126952280604</v>
+        <v>129.5634740165896</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>872.4784887810893</v>
+        <v>872.4784887810904</v>
       </c>
       <c r="C35" t="n">
-        <v>743.2932336852411</v>
+        <v>743.2932336852423</v>
       </c>
       <c r="D35" t="n">
-        <v>624.8047969230543</v>
+        <v>624.8047969230554</v>
       </c>
       <c r="E35" t="n">
-        <v>478.7938061693737</v>
+        <v>478.7938061693748</v>
       </c>
       <c r="F35" t="n">
-        <v>307.5851632243296</v>
+        <v>307.5851632243309</v>
       </c>
       <c r="G35" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372715</v>
       </c>
       <c r="H35" t="n">
         <v>30.43390707393399</v>
@@ -6938,13 +6938,13 @@
         <v>60.75260108020962</v>
       </c>
       <c r="K35" t="n">
-        <v>226.9372683326557</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L35" t="n">
-        <v>485.3806706550284</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M35" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N35" t="n">
         <v>1084.019791121359</v>
@@ -6974,13 +6974,13 @@
         <v>1416.343026973963</v>
       </c>
       <c r="W35" t="n">
-        <v>1303.351633548412</v>
+        <v>1303.351633548413</v>
       </c>
       <c r="X35" t="n">
-        <v>1169.663137131896</v>
+        <v>1169.663137131897</v>
       </c>
       <c r="Y35" t="n">
-        <v>1019.301067000648</v>
+        <v>1019.301067000649</v>
       </c>
     </row>
     <row r="36">
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>343.5293163279027</v>
+        <v>989.7696459755631</v>
       </c>
       <c r="C36" t="n">
-        <v>343.5293163279027</v>
+        <v>815.3166166944361</v>
       </c>
       <c r="D36" t="n">
-        <v>194.5949066666515</v>
+        <v>666.3822070331848</v>
       </c>
       <c r="E36" t="n">
-        <v>35.35745166119597</v>
+        <v>507.1447520277294</v>
       </c>
       <c r="F36" t="n">
-        <v>35.35745166119597</v>
+        <v>360.6101940546143</v>
       </c>
       <c r="G36" t="n">
-        <v>35.35745166119597</v>
+        <v>222.1504691355965</v>
       </c>
       <c r="H36" t="n">
-        <v>30.43390707393399</v>
+        <v>111.399593619506</v>
       </c>
       <c r="I36" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J36" t="n">
-        <v>54.7981338372213</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K36" t="n">
-        <v>208.7559636618385</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="L36" t="n">
-        <v>496.410980281168</v>
+        <v>119.7913802412349</v>
       </c>
       <c r="M36" t="n">
-        <v>496.410980281168</v>
+        <v>496.4109802811681</v>
       </c>
       <c r="N36" t="n">
-        <v>873.0305803211012</v>
+        <v>873.0305803211013</v>
       </c>
       <c r="O36" t="n">
         <v>1185.002115453613</v>
@@ -7038,28 +7038,28 @@
         <v>1521.6953536967</v>
       </c>
       <c r="R36" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S36" t="n">
-        <v>1268.976064197888</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T36" t="n">
-        <v>1268.976064197888</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U36" t="n">
-        <v>1040.77028149338</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="V36" t="n">
-        <v>805.6181732616371</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="W36" t="n">
-        <v>551.3808165334356</v>
+        <v>1365.745281760585</v>
       </c>
       <c r="X36" t="n">
-        <v>343.5293163279027</v>
+        <v>1365.745281760585</v>
       </c>
       <c r="Y36" t="n">
-        <v>343.5293163279027</v>
+        <v>1157.984982995631</v>
       </c>
     </row>
     <row r="37">
@@ -7096,40 +7096,40 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K37" t="n">
-        <v>34.26761491947719</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L37" t="n">
-        <v>94.69987566531981</v>
+        <v>94.69987566531979</v>
       </c>
       <c r="M37" t="n">
         <v>168.8063444881259</v>
       </c>
       <c r="N37" t="n">
-        <v>246.5853435402809</v>
+        <v>246.5853435402808</v>
       </c>
       <c r="O37" t="n">
-        <v>302.4105425462478</v>
+        <v>302.4105425462477</v>
       </c>
       <c r="P37" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="Q37" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="R37" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="S37" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="T37" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="U37" t="n">
-        <v>277.2364804240508</v>
+        <v>94.98104162765419</v>
       </c>
       <c r="V37" t="n">
-        <v>262.3292540627274</v>
+        <v>80.07381526633097</v>
       </c>
       <c r="W37" t="n">
         <v>30.43390707393399</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>872.4784887810906</v>
+        <v>872.4784887810895</v>
       </c>
       <c r="C38" t="n">
-        <v>743.2932336852425</v>
+        <v>743.2932336852413</v>
       </c>
       <c r="D38" t="n">
-        <v>624.8047969230556</v>
+        <v>624.8047969230545</v>
       </c>
       <c r="E38" t="n">
-        <v>478.7938061693749</v>
+        <v>478.793806169374</v>
       </c>
       <c r="F38" t="n">
-        <v>307.5851632243309</v>
+        <v>307.58516322433</v>
       </c>
       <c r="G38" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H38" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I38" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J38" t="n">
-        <v>60.75260108020957</v>
+        <v>60.75260108020962</v>
       </c>
       <c r="K38" t="n">
-        <v>226.9372683326565</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L38" t="n">
-        <v>485.3806706550292</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M38" t="n">
-        <v>789.5552979241032</v>
+        <v>789.5552979241024</v>
       </c>
       <c r="N38" t="n">
-        <v>1084.01979112136</v>
+        <v>1084.019791121359</v>
       </c>
       <c r="O38" t="n">
-        <v>1316.88662418693</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P38" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q38" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R38" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S38" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T38" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U38" t="n">
-        <v>1507.628652472971</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V38" t="n">
-        <v>1416.343026973964</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W38" t="n">
-        <v>1303.351633548413</v>
+        <v>1303.351633548412</v>
       </c>
       <c r="X38" t="n">
-        <v>1169.663137131897</v>
+        <v>1169.663137131896</v>
       </c>
       <c r="Y38" t="n">
-        <v>1019.301067000649</v>
+        <v>1019.301067000648</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.0319464514206</v>
+        <v>623.8096765378583</v>
       </c>
       <c r="C39" t="n">
-        <v>428.5789171702936</v>
+        <v>449.3566472567313</v>
       </c>
       <c r="D39" t="n">
-        <v>279.6445075090423</v>
+        <v>300.42223759548</v>
       </c>
       <c r="E39" t="n">
-        <v>279.6445075090423</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="F39" t="n">
-        <v>279.6445075090423</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="G39" t="n">
         <v>141.1847825900245</v>
       </c>
       <c r="H39" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I39" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J39" t="n">
-        <v>30.43390707393401</v>
+        <v>54.7981338372213</v>
       </c>
       <c r="K39" t="n">
-        <v>119.7913802412353</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L39" t="n">
-        <v>119.7913802412353</v>
+        <v>510.7163377867617</v>
       </c>
       <c r="M39" t="n">
-        <v>496.4109802811687</v>
+        <v>833.104218524255</v>
       </c>
       <c r="N39" t="n">
-        <v>873.0305803211021</v>
+        <v>1209.723818564188</v>
       </c>
       <c r="O39" t="n">
-        <v>1185.002115453614</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="P39" t="n">
-        <v>1418.383708616428</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="Q39" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R39" t="n">
-        <v>1437.357835893787</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S39" t="n">
-        <v>1268.976064197888</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="T39" t="n">
-        <v>1268.976064197888</v>
+        <v>1236.263966506933</v>
       </c>
       <c r="U39" t="n">
-        <v>1268.976064197888</v>
+        <v>1014.245407206518</v>
       </c>
       <c r="V39" t="n">
-        <v>1033.823955966146</v>
+        <v>1014.245407206518</v>
       </c>
       <c r="W39" t="n">
-        <v>779.5865992379443</v>
+        <v>999.7853123228801</v>
       </c>
       <c r="X39" t="n">
-        <v>779.5865992379443</v>
+        <v>999.7853123228801</v>
       </c>
       <c r="Y39" t="n">
-        <v>771.2472834714886</v>
+        <v>792.0250135579263</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K40" t="n">
-        <v>34.26761491947721</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L40" t="n">
-        <v>94.69987566531984</v>
+        <v>94.69987566531979</v>
       </c>
       <c r="M40" t="n">
         <v>168.8063444881259</v>
       </c>
       <c r="N40" t="n">
-        <v>246.5853435402809</v>
+        <v>246.5853435402808</v>
       </c>
       <c r="O40" t="n">
-        <v>302.4105425462478</v>
+        <v>302.4105425462477</v>
       </c>
       <c r="P40" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="Q40" t="n">
-        <v>326.6579621681119</v>
+        <v>258.6573258474539</v>
       </c>
       <c r="R40" t="n">
-        <v>326.6579621681119</v>
+        <v>258.6573258474539</v>
       </c>
       <c r="S40" t="n">
-        <v>326.6579621681119</v>
+        <v>144.4025233717153</v>
       </c>
       <c r="T40" t="n">
-        <v>326.6579621681119</v>
+        <v>144.4025233717153</v>
       </c>
       <c r="U40" t="n">
-        <v>277.2364804240509</v>
+        <v>94.98104162765436</v>
       </c>
       <c r="V40" t="n">
-        <v>262.3292540627275</v>
+        <v>80.07381526633105</v>
       </c>
       <c r="W40" t="n">
-        <v>212.6893458703304</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="X40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="Y40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
     </row>
     <row r="41">
@@ -7406,34 +7406,34 @@
         <v>34.51046220341689</v>
       </c>
       <c r="I41" t="n">
-        <v>34.51046220341689</v>
+        <v>63.97560257890035</v>
       </c>
       <c r="J41" t="n">
-        <v>64.82915620969246</v>
+        <v>94.29429658517591</v>
       </c>
       <c r="K41" t="n">
-        <v>231.0138234621385</v>
+        <v>260.478963837622</v>
       </c>
       <c r="L41" t="n">
-        <v>489.4572257845112</v>
+        <v>564.6156827842319</v>
       </c>
       <c r="M41" t="n">
-        <v>916.5241955517952</v>
+        <v>868.7903100533059</v>
       </c>
       <c r="N41" t="n">
-        <v>1287.847547595504</v>
+        <v>1163.254803250563</v>
       </c>
       <c r="O41" t="n">
-        <v>1520.714380661074</v>
+        <v>1396.121636316133</v>
       </c>
       <c r="P41" t="n">
-        <v>1681.786452210411</v>
+        <v>1557.19370786547</v>
       </c>
       <c r="Q41" t="n">
-        <v>1725.523110170844</v>
+        <v>1600.930365825903</v>
       </c>
       <c r="R41" t="n">
-        <v>1725.523110170844</v>
+        <v>1702.445641600257</v>
       </c>
       <c r="S41" t="n">
         <v>1725.523110170844</v>
@@ -7464,46 +7464,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>792.6170616541237</v>
+        <v>410.9451163833552</v>
       </c>
       <c r="C42" t="n">
-        <v>738.4274852783471</v>
+        <v>410.9451163833552</v>
       </c>
       <c r="D42" t="n">
-        <v>589.4930756170959</v>
+        <v>262.0107067221039</v>
       </c>
       <c r="E42" t="n">
-        <v>430.2556206116403</v>
+        <v>262.0107067221039</v>
       </c>
       <c r="F42" t="n">
-        <v>283.7210626385253</v>
+        <v>115.4761487489889</v>
       </c>
       <c r="G42" t="n">
-        <v>145.2613377195074</v>
+        <v>115.4761487489889</v>
       </c>
       <c r="H42" t="n">
-        <v>34.51046220341689</v>
+        <v>115.4761487489889</v>
       </c>
       <c r="I42" t="n">
         <v>34.51046220341689</v>
       </c>
       <c r="J42" t="n">
-        <v>58.8746889667042</v>
+        <v>58.87468896670419</v>
       </c>
       <c r="K42" t="n">
         <v>227.137876296915</v>
       </c>
       <c r="L42" t="n">
-        <v>378.8846702834635</v>
+        <v>514.7928929162446</v>
       </c>
       <c r="M42" t="n">
-        <v>766.5437285079262</v>
+        <v>902.4519511407073</v>
       </c>
       <c r="N42" t="n">
-        <v>1180.169981875519</v>
+        <v>1316.0782045083</v>
       </c>
       <c r="O42" t="n">
-        <v>1492.14151700803</v>
+        <v>1628.049739640811</v>
       </c>
       <c r="P42" t="n">
         <v>1725.523110170844</v>
@@ -7518,22 +7518,22 @@
         <v>1472.803820672032</v>
       </c>
       <c r="T42" t="n">
-        <v>1271.70995128518</v>
+        <v>1472.803820672032</v>
       </c>
       <c r="U42" t="n">
-        <v>1266.635496979847</v>
+        <v>1244.598037967525</v>
       </c>
       <c r="V42" t="n">
-        <v>1254.614717147279</v>
+        <v>1009.445929735782</v>
       </c>
       <c r="W42" t="n">
-        <v>1000.377360419078</v>
+        <v>826.556915353842</v>
       </c>
       <c r="X42" t="n">
-        <v>1000.377360419078</v>
+        <v>618.7054151483092</v>
       </c>
       <c r="Y42" t="n">
-        <v>792.6170616541237</v>
+        <v>410.9451163833552</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.82361219518246</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="C43" t="n">
-        <v>87.82361219518246</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="D43" t="n">
-        <v>87.82361219518246</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="E43" t="n">
-        <v>87.82361219518246</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="F43" t="n">
         <v>34.51046220341689</v>
@@ -7570,49 +7570,49 @@
         <v>34.51046220341689</v>
       </c>
       <c r="K43" t="n">
-        <v>38.34417004896008</v>
+        <v>38.34417004896007</v>
       </c>
       <c r="L43" t="n">
-        <v>98.77643079480271</v>
+        <v>98.77643079480268</v>
       </c>
       <c r="M43" t="n">
         <v>172.8828996176088</v>
       </c>
       <c r="N43" t="n">
-        <v>250.6618986697638</v>
+        <v>250.6618986697637</v>
       </c>
       <c r="O43" t="n">
-        <v>306.4870976757307</v>
+        <v>306.4870976757306</v>
       </c>
       <c r="P43" t="n">
-        <v>330.7345172975947</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="Q43" t="n">
-        <v>262.7338809769369</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="R43" t="n">
-        <v>262.7338809769369</v>
+        <v>209.4207309851713</v>
       </c>
       <c r="S43" t="n">
-        <v>262.7338809769369</v>
+        <v>209.4207309851713</v>
       </c>
       <c r="T43" t="n">
-        <v>256.5882513279716</v>
+        <v>203.275101336206</v>
       </c>
       <c r="U43" t="n">
-        <v>190.5208361385221</v>
+        <v>137.2076861467565</v>
       </c>
       <c r="V43" t="n">
-        <v>158.9676763318103</v>
+        <v>105.6545263400447</v>
       </c>
       <c r="W43" t="n">
-        <v>92.68183469402474</v>
+        <v>39.36868470225917</v>
       </c>
       <c r="X43" t="n">
-        <v>87.82361219518246</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.82361219518246</v>
+        <v>34.51046220341689</v>
       </c>
     </row>
     <row r="44">
@@ -7643,34 +7643,34 @@
         <v>34.51046220341689</v>
       </c>
       <c r="I44" t="n">
-        <v>34.51046220341689</v>
+        <v>63.97560257890038</v>
       </c>
       <c r="J44" t="n">
-        <v>64.82915620969246</v>
+        <v>94.29429658517594</v>
       </c>
       <c r="K44" t="n">
-        <v>430.7650248068004</v>
+        <v>306.1722804618593</v>
       </c>
       <c r="L44" t="n">
-        <v>689.2084271291731</v>
+        <v>564.6156827842319</v>
       </c>
       <c r="M44" t="n">
-        <v>993.3830543982471</v>
+        <v>868.7903100533059</v>
       </c>
       <c r="N44" t="n">
-        <v>1287.847547595504</v>
+        <v>1163.254803250563</v>
       </c>
       <c r="O44" t="n">
-        <v>1520.714380661074</v>
+        <v>1396.121636316133</v>
       </c>
       <c r="P44" t="n">
-        <v>1681.786452210411</v>
+        <v>1557.19370786547</v>
       </c>
       <c r="Q44" t="n">
-        <v>1725.523110170844</v>
+        <v>1600.930365825903</v>
       </c>
       <c r="R44" t="n">
-        <v>1725.523110170844</v>
+        <v>1702.445641600257</v>
       </c>
       <c r="S44" t="n">
         <v>1725.523110170844</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>688.0741881264755</v>
+        <v>277.7564138322612</v>
       </c>
       <c r="C45" t="n">
-        <v>513.6211588453485</v>
+        <v>103.3033845511341</v>
       </c>
       <c r="D45" t="n">
-        <v>364.6867491840973</v>
+        <v>103.3033845511341</v>
       </c>
       <c r="E45" t="n">
-        <v>364.6867491840973</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="F45" t="n">
-        <v>364.6867491840973</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="G45" t="n">
-        <v>226.2270242650794</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="H45" t="n">
-        <v>115.4761487489889</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I45" t="n">
         <v>34.51046220341689</v>
@@ -7728,22 +7728,22 @@
         <v>34.51046220341689</v>
       </c>
       <c r="K45" t="n">
-        <v>202.7736495336277</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="L45" t="n">
-        <v>490.4286661529572</v>
+        <v>322.1654788227464</v>
       </c>
       <c r="M45" t="n">
-        <v>663.2320834276535</v>
+        <v>709.8245370472091</v>
       </c>
       <c r="N45" t="n">
-        <v>1076.858336795246</v>
+        <v>1123.450790414802</v>
       </c>
       <c r="O45" t="n">
-        <v>1388.829871927757</v>
+        <v>1435.422325547313</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.211465090572</v>
+        <v>1668.803918710127</v>
       </c>
       <c r="Q45" t="n">
         <v>1725.523110170844</v>
@@ -7755,22 +7755,22 @@
         <v>1557.141338474946</v>
       </c>
       <c r="T45" t="n">
-        <v>1557.141338474946</v>
+        <v>1356.047469088093</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.944123657731</v>
+        <v>1350.97301478276</v>
       </c>
       <c r="V45" t="n">
-        <v>1357.923343825164</v>
+        <v>1115.820906551018</v>
       </c>
       <c r="W45" t="n">
-        <v>1103.685987096962</v>
+        <v>861.5835498228159</v>
       </c>
       <c r="X45" t="n">
-        <v>895.8344868914294</v>
+        <v>653.7320496172831</v>
       </c>
       <c r="Y45" t="n">
-        <v>688.0741881264755</v>
+        <v>445.9717508523292</v>
       </c>
     </row>
     <row r="46">
@@ -7807,37 +7807,37 @@
         <v>34.51046220341689</v>
       </c>
       <c r="K46" t="n">
-        <v>38.34417004896008</v>
+        <v>38.34417004896007</v>
       </c>
       <c r="L46" t="n">
-        <v>98.77643079480271</v>
+        <v>98.77643079480268</v>
       </c>
       <c r="M46" t="n">
         <v>172.8828996176088</v>
       </c>
       <c r="N46" t="n">
-        <v>250.6618986697638</v>
+        <v>250.6618986697637</v>
       </c>
       <c r="O46" t="n">
-        <v>306.4870976757307</v>
+        <v>306.4870976757306</v>
       </c>
       <c r="P46" t="n">
-        <v>330.7345172975947</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="Q46" t="n">
-        <v>330.7345172975947</v>
+        <v>262.7338809769368</v>
       </c>
       <c r="R46" t="n">
-        <v>330.7345172975947</v>
+        <v>262.7338809769368</v>
       </c>
       <c r="S46" t="n">
-        <v>330.7345172975947</v>
+        <v>262.7338809769368</v>
       </c>
       <c r="T46" t="n">
-        <v>324.5888876486295</v>
+        <v>203.2751013362059</v>
       </c>
       <c r="U46" t="n">
-        <v>258.52147245918</v>
+        <v>137.2076861467565</v>
       </c>
       <c r="V46" t="n">
         <v>105.6545263400447</v>
@@ -8708,7 +8708,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K12" t="n">
-        <v>94.50242152751716</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>250.2846633488699</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>454.5540958868388</v>
+        <v>84.29073146033433</v>
       </c>
       <c r="N12" t="n">
         <v>441.9619164368269</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9015,16 +9015,16 @@
         <v>454.5540958868388</v>
       </c>
       <c r="N15" t="n">
-        <v>441.9619164368269</v>
+        <v>151.4434189971764</v>
       </c>
       <c r="O15" t="n">
-        <v>78.73955651661683</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>238.7118369096187</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9246,13 +9246,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>356.3904892372029</v>
+        <v>356.390489237203</v>
       </c>
       <c r="M18" t="n">
-        <v>74.13025746266386</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N18" t="n">
-        <v>441.9619164368269</v>
+        <v>61.53807801265199</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>94.50242152751716</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>254.2535469453956</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N21" t="n">
-        <v>441.9619164368269</v>
+        <v>387.1824019899179</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>82.7237856471955</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711653</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9723,19 +9723,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5540958868388</v>
+        <v>295.4193843891497</v>
       </c>
       <c r="N24" t="n">
-        <v>441.9619164368269</v>
+        <v>441.961916436827</v>
       </c>
       <c r="O24" t="n">
-        <v>78.73955651661683</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>82.7237856471955</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3263560055306</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K36" t="n">
-        <v>250.0153809463224</v>
+        <v>94.50242152751716</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>170.5397963620161</v>
       </c>
       <c r="M36" t="n">
-        <v>74.13025746266386</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N36" t="n">
         <v>441.9619164368269</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>184.7624954338821</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>80.27972245565152</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>454.554095886839</v>
+        <v>399.7745814399298</v>
       </c>
       <c r="N39" t="n">
-        <v>441.9619164368272</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>82.7237856471955</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>233.559312341054</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11154,7 +11154,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>181.1817356775321</v>
       </c>
       <c r="Q42" t="n">
         <v>105.7220906850686</v>
@@ -11376,13 +11376,13 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751716</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>248.6791638007409</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>163.0142032716514</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>233.5562907382949</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>222.9664405879703</v>
       </c>
       <c r="E11" t="n">
-        <v>250.2137690395491</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>275.1594447089988</v>
       </c>
       <c r="G11" t="n">
-        <v>283.084518104593</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>202.6210018711095</v>
+        <v>178.1941453109555</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>59.42064602642672</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>65.87283976874606</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>89.18341408247065</v>
       </c>
       <c r="U11" t="n">
-        <v>20.42014117586312</v>
+        <v>119.5889224048975</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>217.5243676847003</v>
       </c>
       <c r="X11" t="n">
-        <v>238.0144996457564</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>254.5213376233409</v>
@@ -23495,13 +23495,13 @@
         <v>251.017240630768</v>
       </c>
       <c r="C14" t="n">
-        <v>233.556290738295</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>222.9664405879704</v>
+        <v>222.9664405879703</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>250.2137690395492</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>202.6210018711096</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,16 +23549,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>48.17390298642265</v>
       </c>
       <c r="V14" t="n">
-        <v>196.0356574374223</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>217.5243676847004</v>
       </c>
       <c r="X14" t="n">
-        <v>121.7135893096013</v>
+        <v>238.0144996457564</v>
       </c>
       <c r="Y14" t="n">
         <v>254.521337623341</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>471083.8947622971</v>
+        <v>471083.894762297</v>
       </c>
       <c r="C2" t="n">
         <v>471083.894762297</v>
       </c>
       <c r="D2" t="n">
-        <v>471083.894762297</v>
+        <v>471083.8947622969</v>
       </c>
       <c r="E2" t="n">
-        <v>404248.1252532171</v>
+        <v>404248.125253217</v>
       </c>
       <c r="F2" t="n">
-        <v>404248.1252532169</v>
+        <v>404248.1252532168</v>
       </c>
       <c r="G2" t="n">
+        <v>472099.0176719626</v>
+      </c>
+      <c r="H2" t="n">
         <v>472099.0176719624</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>472099.0176719626</v>
-      </c>
-      <c r="I2" t="n">
-        <v>472099.0176719625</v>
       </c>
       <c r="J2" t="n">
         <v>472099.0176719627</v>
@@ -26341,19 +26341,19 @@
         <v>472099.0176719626</v>
       </c>
       <c r="L2" t="n">
-        <v>472099.0176719626</v>
+        <v>472099.0176719625</v>
       </c>
       <c r="M2" t="n">
-        <v>472099.0176719626</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="N2" t="n">
-        <v>472099.0176719626</v>
+        <v>472099.0176719625</v>
       </c>
       <c r="O2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="P2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84530.31055472424</v>
+        <v>84530.31055472423</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>84530.31055472423</v>
+        <v>84530.31055472424</v>
       </c>
       <c r="M3" t="n">
-        <v>87131.09894239518</v>
+        <v>87131.09894239524</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34584.19673510452</v>
+        <v>34584.19673510458</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>310803.6100166999</v>
       </c>
       <c r="F4" t="n">
-        <v>310803.6100166998</v>
+        <v>310803.6100166999</v>
       </c>
       <c r="G4" t="n">
         <v>377919.8023185456</v>
@@ -26436,7 +26436,7 @@
         <v>377919.8023185457</v>
       </c>
       <c r="I4" t="n">
-        <v>377919.8023185456</v>
+        <v>377919.8023185458</v>
       </c>
       <c r="J4" t="n">
         <v>376828.4269773418</v>
@@ -26448,10 +26448,10 @@
         <v>376828.4269773418</v>
       </c>
       <c r="M4" t="n">
+        <v>377919.8023185458</v>
+      </c>
+      <c r="N4" t="n">
         <v>377919.8023185456</v>
-      </c>
-      <c r="N4" t="n">
-        <v>377919.8023185458</v>
       </c>
       <c r="O4" t="n">
         <v>376989.2813831306</v>
@@ -26482,10 +26482,10 @@
         <v>36923.20336678313</v>
       </c>
       <c r="G5" t="n">
-        <v>45806.17671431452</v>
+        <v>45806.17671431451</v>
       </c>
       <c r="H5" t="n">
-        <v>45806.17671431452</v>
+        <v>45806.17671431451</v>
       </c>
       <c r="I5" t="n">
         <v>45806.17671431453</v>
@@ -26500,10 +26500,10 @@
         <v>57382.03161561136</v>
       </c>
       <c r="M5" t="n">
+        <v>45806.17671431453</v>
+      </c>
+      <c r="N5" t="n">
         <v>45806.17671431452</v>
-      </c>
-      <c r="N5" t="n">
-        <v>45806.17671431453</v>
       </c>
       <c r="O5" t="n">
         <v>47518.94570368936</v>
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1182.415043048946</v>
+        <v>1178.001465180717</v>
       </c>
       <c r="C6" t="n">
-        <v>1182.415043048888</v>
+        <v>1178.001465180776</v>
       </c>
       <c r="D6" t="n">
-        <v>1182.41504304883</v>
+        <v>1178.001465180659</v>
       </c>
       <c r="E6" t="n">
-        <v>-262684.8330492562</v>
+        <v>-262979.8369293379</v>
       </c>
       <c r="F6" t="n">
-        <v>56521.31186973405</v>
+        <v>56226.30798965238</v>
       </c>
       <c r="G6" t="n">
-        <v>-36157.27191562196</v>
+        <v>-36157.27191562184</v>
       </c>
       <c r="H6" t="n">
-        <v>48373.03863910234</v>
+        <v>48373.03863910217</v>
       </c>
       <c r="I6" t="n">
-        <v>48373.03863910233</v>
+        <v>48373.03863910228</v>
       </c>
       <c r="J6" t="n">
         <v>-79027.49908220107</v>
@@ -26549,19 +26549,19 @@
         <v>37888.55907900955</v>
       </c>
       <c r="L6" t="n">
-        <v>-46641.75147571475</v>
+        <v>-46641.75147571487</v>
       </c>
       <c r="M6" t="n">
-        <v>-38758.06030329272</v>
+        <v>-38758.06030329279</v>
       </c>
       <c r="N6" t="n">
-        <v>48373.03863910233</v>
+        <v>48373.0386391024</v>
       </c>
       <c r="O6" t="n">
-        <v>13006.59385003848</v>
+        <v>13006.5938500386</v>
       </c>
       <c r="P6" t="n">
-        <v>47590.79058514303</v>
+        <v>47590.79058514314</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F2" t="n">
         <v>131.7166010327126</v>
@@ -26716,7 +26716,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="M2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="N2" t="n">
         <v>237.3794892261179</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="F3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="G3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="H3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="I3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="K3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="L3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="M3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="N3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="O3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="P3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
     </row>
     <row r="4">
@@ -26814,16 +26814,16 @@
         <v>691.5760929882896</v>
       </c>
       <c r="K4" t="n">
-        <v>691.5760929882896</v>
+        <v>691.5760929882895</v>
       </c>
       <c r="L4" t="n">
-        <v>691.5760929882896</v>
+        <v>691.5760929882895</v>
       </c>
       <c r="M4" t="n">
         <v>380.4238384241749</v>
       </c>
       <c r="N4" t="n">
-        <v>380.4238384241751</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O4" t="n">
         <v>431.3807775427111</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.38117208504676</v>
+        <v>44.38117208504679</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>105.6628881934053</v>
       </c>
       <c r="M2" t="n">
-        <v>87.33542894766592</v>
+        <v>87.33542894766597</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>69.27158386006022</v>
+        <v>69.27158386006033</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>50.95693911853596</v>
+        <v>50.95693911853618</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.38117208504676</v>
+        <v>44.38117208504679</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="D11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="E11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="I11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>118.359332514826</v>
       </c>
       <c r="S11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="T11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="U11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="V11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="W11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="X11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
     </row>
     <row r="12">
@@ -28166,25 +28166,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="E12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I12" t="n">
         <v>80.15602968011626</v>
@@ -28217,25 +28217,25 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>15.76699017642122</v>
       </c>
       <c r="T12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="W12" t="n">
-        <v>125.4103569373506</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="X12" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="D13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="E13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="J13" t="n">
-        <v>77.45106251930777</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="K13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="L13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="M13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="N13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="O13" t="n">
-        <v>39.20416659260002</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>131.7166010327126</v>
+        <v>116.6552291119072</v>
       </c>
       <c r="Q13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="R13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="S13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="T13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="U13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="V13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="W13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="X13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
     </row>
     <row r="14">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C15" t="n">
         <v>131.7166010327126</v>
@@ -28412,19 +28412,19 @@
         <v>131.7166010327126</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G15" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>99.26113280130576</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>131.7166010327126</v>
       </c>
-      <c r="T15" t="n">
-        <v>73.84978558475497</v>
-      </c>
-      <c r="U15" t="n">
-        <v>131.7166010327126</v>
-      </c>
-      <c r="V15" t="n">
-        <v>131.7166010327126</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
       <c r="X15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28506,13 +28506,13 @@
         <v>131.7166010327126</v>
       </c>
       <c r="J16" t="n">
-        <v>131.7166010327126</v>
+        <v>116.6552291119084</v>
       </c>
       <c r="K16" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="L16" t="n">
-        <v>49.33459915445746</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>131.7166010327126</v>
@@ -28527,7 +28527,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.32062995745122</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="R16" t="n">
         <v>131.7166010327126</v>
@@ -28643,25 +28643,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I18" t="n">
-        <v>80.15602968011626</v>
+        <v>47.7531333443461</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T18" t="n">
         <v>199.0829306929842</v>
@@ -28700,13 +28700,13 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V18" t="n">
-        <v>173.8143538694301</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>237.3794892261179</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.7659706229939</v>
@@ -28743,7 +28743,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J19" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R19" t="n">
-        <v>167.1761804170862</v>
+        <v>132.1643440315852</v>
       </c>
       <c r="S19" t="n">
         <v>220.0953094380075</v>
@@ -28785,7 +28785,7 @@
         <v>237.3794892261179</v>
       </c>
       <c r="X19" t="n">
-        <v>45.27677098060477</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -28886,10 +28886,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.0751276698277</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>70.01690149835497</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>112.0798000532051</v>
       </c>
       <c r="W21" t="n">
-        <v>237.3794892261179</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -28980,7 +28980,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J22" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,10 +29001,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.32062995745122</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>167.1761804170862</v>
+        <v>54.0639259661051</v>
       </c>
       <c r="S22" t="n">
         <v>220.0953094380075</v>
@@ -29016,7 +29016,7 @@
         <v>237.3794892261179</v>
       </c>
       <c r="V22" t="n">
-        <v>56.94660481768548</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W22" t="n">
         <v>237.3794892261179</v>
@@ -29114,16 +29114,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T24" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>97.30441194416562</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>202.1504258552298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -29202,7 +29202,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -29217,7 +29217,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J25" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,13 +29238,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R25" t="n">
         <v>167.1761804170862</v>
       </c>
       <c r="S25" t="n">
-        <v>186.0963876761443</v>
+        <v>220.0953094380075</v>
       </c>
       <c r="T25" t="n">
         <v>226.984188467659</v>
@@ -29256,7 +29256,7 @@
         <v>237.3794892261179</v>
       </c>
       <c r="W25" t="n">
-        <v>237.3794892261179</v>
+        <v>236.7785849996229</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -29354,7 +29354,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -29369,10 +29369,10 @@
         <v>137.0751276698277</v>
       </c>
       <c r="H27" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
+        <v>39.24400932056579</v>
+      </c>
+      <c r="U27" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
       <c r="V27" t="n">
-        <v>66.03859081153951</v>
+        <v>150.044060278452</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29436,7 +29436,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E28" t="n">
         <v>150.044060278452</v>
@@ -29457,25 +29457,25 @@
         <v>150.044060278452</v>
       </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="O28" t="n">
-        <v>93.32131836496166</v>
+        <v>9.169300783721368</v>
       </c>
       <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>67.32062995745122</v>
       </c>
       <c r="R28" t="n">
         <v>150.044060278452</v>
@@ -29588,73 +29588,73 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>44.21885720563392</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>145.0692123933839</v>
+      </c>
+      <c r="G30" t="n">
+        <v>137.0751276698277</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="C30" t="n">
+      <c r="V30" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="D30" t="n">
-        <v>147.4450655646388</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>28.87407142575451</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>150.044060278452</v>
@@ -29676,10 +29676,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>150.044060278452</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>150.044060278452</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>150.044060278452</v>
@@ -29691,28 +29691,28 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J31" t="n">
+        <v>101.5544282523654</v>
+      </c>
+      <c r="K31" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>93.3213183649616</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R31" t="n">
         <v>150.044060278452</v>
@@ -29770,7 +29770,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="J32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784514</v>
       </c>
       <c r="K32" t="n">
         <v>150.044060278452</v>
@@ -29794,7 +29794,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="R32" t="n">
-        <v>150.0440602784523</v>
+        <v>150.044060278452</v>
       </c>
       <c r="S32" t="n">
         <v>150.044060278452</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>66.67577022946392</v>
+        <v>133.2256878830313</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -29834,7 +29834,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S33" t="n">
         <v>150.044060278452</v>
@@ -29882,19 +29882,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="V33" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29913,10 +29913,10 @@
         <v>150.044060278452</v>
       </c>
       <c r="E34" t="n">
-        <v>150.044060278452</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>150.044060278452</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>150.044060278452</v>
@@ -29931,11 +29931,11 @@
         <v>150.044060278452</v>
       </c>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="L34" t="n">
-        <v>9.169300783721667</v>
-      </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
@@ -29943,7 +29943,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>17.40241067112429</v>
       </c>
       <c r="P34" t="n">
         <v>150.044060278452</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I35" t="n">
         <v>191.1372470591394</v>
@@ -30040,19 +30040,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="36">
@@ -30062,10 +30062,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -30074,16 +30074,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>104.7690576195402</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,28 +30110,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T36" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>97.30441194416608</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30165,7 +30165,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J37" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R37" t="n">
         <v>167.1761804170862</v>
@@ -30198,13 +30198,13 @@
         <v>226.984188467659</v>
       </c>
       <c r="U37" t="n">
-        <v>237.3794892261179</v>
+        <v>56.94660481768531</v>
       </c>
       <c r="V37" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W37" t="n">
-        <v>56.94660481768551</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -30247,7 +30247,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30308,13 +30308,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -30350,25 +30350,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T39" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9237248774628</v>
+        <v>6.125351170051658</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>197.4267731685132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30402,7 +30402,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J40" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,13 +30423,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.32062995745122</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>167.1761804170862</v>
       </c>
       <c r="S40" t="n">
-        <v>220.0953094380075</v>
+        <v>106.9830549870263</v>
       </c>
       <c r="T40" t="n">
         <v>226.984188467659</v>
@@ -30444,7 +30444,7 @@
         <v>237.3794892261179</v>
       </c>
       <c r="X40" t="n">
-        <v>45.27677098060474</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -30478,7 +30478,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="I41" t="n">
-        <v>191.1372470591394</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30487,13 +30487,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>46.15486527700727</v>
       </c>
       <c r="M41" t="n">
-        <v>124.1336792911212</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>77.63521095601197</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30505,10 +30505,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.359332514826</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="S41" t="n">
-        <v>197.5894408014587</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="T41" t="n">
         <v>220.9000151151833</v>
@@ -30539,25 +30539,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>119.0608183762969</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I42" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30590,19 +30590,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U42" t="n">
-        <v>220.9000151151833</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>220.9000151151833</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>70.63485892279914</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -30627,7 +30627,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>92.64102953108332</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.7659706229939</v>
@@ -30639,7 +30639,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J43" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,10 +30660,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R43" t="n">
-        <v>167.1761804170862</v>
+        <v>47.07553196778719</v>
       </c>
       <c r="S43" t="n">
         <v>220.0953094380075</v>
@@ -30715,13 +30715,13 @@
         <v>220.9000151151833</v>
       </c>
       <c r="I44" t="n">
-        <v>191.1372470591394</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>201.7688902471332</v>
+        <v>46.15486527700733</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -30742,10 +30742,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.359332514826</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="S44" t="n">
-        <v>197.5894408014587</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="T44" t="n">
         <v>220.9000151151833</v>
@@ -30773,28 +30773,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>89.54008733116088</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30827,13 +30827,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>40.59848220842048</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="V45" t="n">
-        <v>220.9000151151833</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J46" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.32062995745122</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>167.1761804170862</v>
@@ -30906,13 +30906,13 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T46" t="n">
-        <v>220.9000151151833</v>
+        <v>168.1199966233353</v>
       </c>
       <c r="U46" t="n">
         <v>220.9000151151833</v>
       </c>
       <c r="V46" t="n">
-        <v>100.799366665884</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="W46" t="n">
         <v>220.9000151151833</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H11" t="n">
-        <v>5.137199211944962</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I11" t="n">
         <v>19.33864251126652</v>
@@ -31762,28 +31762,28 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K11" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L11" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M11" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N11" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O11" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P11" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R11" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S11" t="n">
         <v>11.43062878478661</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H12" t="n">
         <v>2.592077475566878</v>
       </c>
       <c r="I12" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J12" t="n">
         <v>25.35692139018443</v>
@@ -31844,28 +31844,28 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L12" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M12" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N12" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O12" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P12" t="n">
         <v>51.25062176713475</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R12" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S12" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T12" t="n">
         <v>1.081798001837402</v>
@@ -31911,10 +31911,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H13" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I13" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J13" t="n">
         <v>15.908117597365</v>
@@ -31923,19 +31923,19 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L13" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M13" t="n">
         <v>35.27114205109486</v>
       </c>
       <c r="N13" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O13" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P13" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q13" t="n">
         <v>18.84141329424316</v>
@@ -31947,7 +31947,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U13" t="n">
         <v>0.01227320375262828</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H14" t="n">
-        <v>5.137199211944962</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I14" t="n">
         <v>19.33864251126652</v>
@@ -31999,28 +31999,28 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K14" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L14" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M14" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N14" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O14" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P14" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R14" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S14" t="n">
         <v>11.43062878478661</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H15" t="n">
         <v>2.592077475566878</v>
       </c>
       <c r="I15" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J15" t="n">
         <v>25.35692139018443</v>
@@ -32081,28 +32081,28 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L15" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M15" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N15" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O15" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P15" t="n">
         <v>51.25062176713475</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R15" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S15" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T15" t="n">
         <v>1.081798001837402</v>
@@ -32148,10 +32148,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H16" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I16" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J16" t="n">
         <v>15.908117597365</v>
@@ -32160,19 +32160,19 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L16" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M16" t="n">
         <v>35.27114205109486</v>
       </c>
       <c r="N16" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O16" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P16" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q16" t="n">
         <v>18.84141329424316</v>
@@ -32184,7 +32184,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U16" t="n">
         <v>0.01227320375262828</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H17" t="n">
-        <v>5.137199211944962</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I17" t="n">
         <v>19.33864251126652</v>
@@ -32236,28 +32236,28 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K17" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L17" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M17" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N17" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O17" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P17" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R17" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S17" t="n">
         <v>11.43062878478661</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H18" t="n">
         <v>2.592077475566878</v>
       </c>
       <c r="I18" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J18" t="n">
         <v>25.35692139018443</v>
@@ -32318,28 +32318,28 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L18" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M18" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N18" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O18" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P18" t="n">
         <v>51.25062176713475</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R18" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S18" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T18" t="n">
         <v>1.081798001837402</v>
@@ -32385,10 +32385,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H19" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I19" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J19" t="n">
         <v>15.908117597365</v>
@@ -32397,19 +32397,19 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L19" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M19" t="n">
         <v>35.27114205109486</v>
       </c>
       <c r="N19" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O19" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P19" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q19" t="n">
         <v>18.84141329424316</v>
@@ -32421,7 +32421,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U19" t="n">
         <v>0.01227320375262828</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H20" t="n">
-        <v>5.137199211944962</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I20" t="n">
         <v>19.33864251126652</v>
@@ -32473,28 +32473,28 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K20" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L20" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M20" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N20" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O20" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P20" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R20" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S20" t="n">
         <v>11.43062878478661</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H21" t="n">
         <v>2.592077475566878</v>
       </c>
       <c r="I21" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J21" t="n">
         <v>25.35692139018443</v>
@@ -32555,28 +32555,28 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L21" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M21" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N21" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O21" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P21" t="n">
         <v>51.25062176713475</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R21" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S21" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T21" t="n">
         <v>1.081798001837402</v>
@@ -32622,10 +32622,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H22" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I22" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J22" t="n">
         <v>15.908117597365</v>
@@ -32634,19 +32634,19 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L22" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M22" t="n">
         <v>35.27114205109486</v>
       </c>
       <c r="N22" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O22" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P22" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q22" t="n">
         <v>18.84141329424316</v>
@@ -32658,7 +32658,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U22" t="n">
         <v>0.01227320375262828</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H23" t="n">
-        <v>5.137199211944962</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I23" t="n">
         <v>19.33864251126652</v>
@@ -32710,28 +32710,28 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K23" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L23" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M23" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N23" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O23" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P23" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R23" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S23" t="n">
         <v>11.43062878478661</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H24" t="n">
         <v>2.592077475566878</v>
       </c>
       <c r="I24" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J24" t="n">
         <v>25.35692139018443</v>
@@ -32792,28 +32792,28 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L24" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M24" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N24" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O24" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P24" t="n">
         <v>51.25062176713475</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R24" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S24" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T24" t="n">
         <v>1.081798001837402</v>
@@ -32859,10 +32859,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H25" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I25" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J25" t="n">
         <v>15.908117597365</v>
@@ -32871,19 +32871,19 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L25" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M25" t="n">
         <v>35.27114205109486</v>
       </c>
       <c r="N25" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O25" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P25" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q25" t="n">
         <v>18.84141329424316</v>
@@ -32895,7 +32895,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U25" t="n">
         <v>0.01227320375262828</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H26" t="n">
-        <v>5.137199211944962</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I26" t="n">
         <v>19.33864251126652</v>
@@ -32947,28 +32947,28 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K26" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L26" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M26" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N26" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O26" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P26" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R26" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S26" t="n">
         <v>11.43062878478661</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H27" t="n">
         <v>2.592077475566878</v>
       </c>
       <c r="I27" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J27" t="n">
         <v>25.35692139018443</v>
@@ -33029,28 +33029,28 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L27" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M27" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N27" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O27" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P27" t="n">
         <v>51.25062176713475</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R27" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S27" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T27" t="n">
         <v>1.081798001837402</v>
@@ -33096,10 +33096,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H28" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I28" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J28" t="n">
         <v>15.908117597365</v>
@@ -33108,19 +33108,19 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L28" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M28" t="n">
         <v>35.27114205109486</v>
       </c>
       <c r="N28" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O28" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P28" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q28" t="n">
         <v>18.84141329424316</v>
@@ -33132,7 +33132,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U28" t="n">
         <v>0.01227320375262828</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H29" t="n">
-        <v>5.137199211944962</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I29" t="n">
         <v>19.33864251126652</v>
@@ -33184,28 +33184,28 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K29" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L29" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M29" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N29" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O29" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P29" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R29" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S29" t="n">
         <v>11.43062878478661</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H30" t="n">
         <v>2.592077475566878</v>
       </c>
       <c r="I30" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J30" t="n">
         <v>25.35692139018443</v>
@@ -33266,28 +33266,28 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L30" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M30" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N30" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O30" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P30" t="n">
         <v>51.25062176713475</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R30" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S30" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T30" t="n">
         <v>1.081798001837402</v>
@@ -33333,10 +33333,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H31" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I31" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J31" t="n">
         <v>15.908117597365</v>
@@ -33345,19 +33345,19 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L31" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M31" t="n">
         <v>35.27114205109486</v>
       </c>
       <c r="N31" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O31" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P31" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q31" t="n">
         <v>18.84141329424316</v>
@@ -33369,7 +33369,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U31" t="n">
         <v>0.01227320375262828</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H32" t="n">
-        <v>5.137199211944962</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I32" t="n">
         <v>19.33864251126652</v>
@@ -33421,28 +33421,28 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K32" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L32" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M32" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N32" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O32" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P32" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R32" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S32" t="n">
         <v>11.43062878478661</v>
@@ -33488,13 +33488,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H33" t="n">
         <v>2.592077475566878</v>
       </c>
       <c r="I33" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J33" t="n">
         <v>25.35692139018443</v>
@@ -33503,28 +33503,28 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L33" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M33" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N33" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O33" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P33" t="n">
         <v>51.25062176713475</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R33" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S33" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T33" t="n">
         <v>1.081798001837402</v>
@@ -33570,10 +33570,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H34" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I34" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J34" t="n">
         <v>15.908117597365</v>
@@ -33582,19 +33582,19 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L34" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M34" t="n">
         <v>35.27114205109486</v>
       </c>
       <c r="N34" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O34" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P34" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q34" t="n">
         <v>18.84141329424316</v>
@@ -33606,7 +33606,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U34" t="n">
         <v>0.01227320375262828</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H35" t="n">
-        <v>5.137199211944962</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I35" t="n">
         <v>19.33864251126652</v>
@@ -33658,28 +33658,28 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K35" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L35" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M35" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N35" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O35" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P35" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R35" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S35" t="n">
         <v>11.43062878478661</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H36" t="n">
         <v>2.592077475566878</v>
       </c>
       <c r="I36" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J36" t="n">
         <v>25.35692139018443</v>
@@ -33740,28 +33740,28 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L36" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M36" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N36" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O36" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P36" t="n">
         <v>51.25062176713475</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R36" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S36" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T36" t="n">
         <v>1.081798001837402</v>
@@ -33807,10 +33807,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H37" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I37" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J37" t="n">
         <v>15.908117597365</v>
@@ -33819,19 +33819,19 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L37" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M37" t="n">
         <v>35.27114205109486</v>
       </c>
       <c r="N37" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O37" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P37" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q37" t="n">
         <v>18.84141329424316</v>
@@ -33843,7 +33843,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U37" t="n">
         <v>0.01227320375262828</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H38" t="n">
-        <v>5.137199211944962</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I38" t="n">
         <v>19.33864251126652</v>
@@ -33895,28 +33895,28 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K38" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L38" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M38" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N38" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O38" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P38" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R38" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S38" t="n">
         <v>11.43062878478661</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H39" t="n">
         <v>2.592077475566878</v>
       </c>
       <c r="I39" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J39" t="n">
         <v>25.35692139018443</v>
@@ -33977,28 +33977,28 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L39" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M39" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N39" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O39" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P39" t="n">
         <v>51.25062176713475</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R39" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S39" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T39" t="n">
         <v>1.081798001837402</v>
@@ -34044,10 +34044,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H40" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I40" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J40" t="n">
         <v>15.908117597365</v>
@@ -34056,19 +34056,19 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L40" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M40" t="n">
         <v>35.27114205109486</v>
       </c>
       <c r="N40" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O40" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P40" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q40" t="n">
         <v>18.84141329424316</v>
@@ -34080,7 +34080,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U40" t="n">
         <v>0.01227320375262828</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H41" t="n">
-        <v>5.137199211944962</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I41" t="n">
         <v>19.33864251126652</v>
@@ -34132,28 +34132,28 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K41" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L41" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M41" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N41" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O41" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P41" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R41" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S41" t="n">
         <v>11.43062878478661</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H42" t="n">
         <v>2.592077475566878</v>
       </c>
       <c r="I42" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J42" t="n">
         <v>25.35692139018443</v>
@@ -34214,28 +34214,28 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L42" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M42" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N42" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O42" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P42" t="n">
         <v>51.25062176713475</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R42" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S42" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T42" t="n">
         <v>1.081798001837402</v>
@@ -34281,10 +34281,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H43" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I43" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J43" t="n">
         <v>15.908117597365</v>
@@ -34293,19 +34293,19 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L43" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M43" t="n">
         <v>35.27114205109486</v>
       </c>
       <c r="N43" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O43" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P43" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q43" t="n">
         <v>18.84141329424316</v>
@@ -34317,7 +34317,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U43" t="n">
         <v>0.01227320375262828</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H44" t="n">
-        <v>5.137199211944962</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I44" t="n">
         <v>19.33864251126652</v>
@@ -34369,28 +34369,28 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K44" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L44" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M44" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N44" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O44" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P44" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R44" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S44" t="n">
         <v>11.43062878478661</v>
@@ -34436,13 +34436,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H45" t="n">
         <v>2.592077475566878</v>
       </c>
       <c r="I45" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J45" t="n">
         <v>25.35692139018443</v>
@@ -34451,28 +34451,28 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L45" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M45" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N45" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O45" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P45" t="n">
         <v>51.25062176713475</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R45" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S45" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T45" t="n">
         <v>1.081798001837402</v>
@@ -34518,10 +34518,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H46" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I46" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J46" t="n">
         <v>15.908117597365</v>
@@ -34530,19 +34530,19 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L46" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M46" t="n">
         <v>35.27114205109486</v>
       </c>
       <c r="N46" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O46" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P46" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q46" t="n">
         <v>18.84141329424316</v>
@@ -34554,7 +34554,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U46" t="n">
         <v>0.01227320375262828</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068242</v>
       </c>
       <c r="K11" t="n">
         <v>167.863300254996</v>
@@ -35428,7 +35428,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.17844238427591</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>24.61033006392658</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L12" t="n">
-        <v>170.0049408932184</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M12" t="n">
-        <v>380.4238384241749</v>
+        <v>10.16047399767045</v>
       </c>
       <c r="N12" t="n">
         <v>380.4238384241749</v>
@@ -35507,7 +35507,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.2655385134049</v>
       </c>
       <c r="K13" t="n">
         <v>135.589033199928</v>
@@ -35580,13 +35580,13 @@
         <v>210.2812465399399</v>
       </c>
       <c r="O13" t="n">
-        <v>95.59325649761709</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P13" t="n">
-        <v>156.2089440851005</v>
+        <v>141.1475721642951</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.39597107526143</v>
+        <v>64.39597107526144</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K14" t="n">
         <v>167.863300254996</v>
@@ -35665,7 +35665,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.17844238427582</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K15" t="n">
         <v>169.9628154850614</v>
@@ -35735,16 +35735,16 @@
         <v>380.4238384241749</v>
       </c>
       <c r="N15" t="n">
-        <v>380.4238384241749</v>
+        <v>89.90534098452441</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>315.1227627601127</v>
       </c>
       <c r="P15" t="n">
-        <v>155.9880512624232</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q15" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.26553851340482</v>
+        <v>39.20416659260065</v>
       </c>
       <c r="K16" t="n">
-        <v>135.5890331999279</v>
+        <v>135.589033199928</v>
       </c>
       <c r="L16" t="n">
-        <v>110.3772867765207</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M16" t="n">
         <v>206.571620045648</v>
@@ -35823,7 +35823,7 @@
         <v>156.2089440851005</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.39597107526139</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K17" t="n">
         <v>167.863300254996</v>
@@ -35893,7 +35893,7 @@
         <v>307.2470982515899</v>
       </c>
       <c r="N17" t="n">
-        <v>297.438882017431</v>
+        <v>297.4388820174311</v>
       </c>
       <c r="O17" t="n">
         <v>235.2190232985557</v>
@@ -35902,7 +35902,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.17844238427582</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K18" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L18" t="n">
-        <v>276.1107667815514</v>
+        <v>276.1107667815515</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N18" t="n">
-        <v>380.4238384241749</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>315.1227627601127</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.872432167215351</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L19" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M19" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N19" t="n">
-        <v>78.56464550722723</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O19" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P19" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068242</v>
       </c>
       <c r="K20" t="n">
         <v>167.863300254996</v>
@@ -36139,7 +36139,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.17844238427582</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L21" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M21" t="n">
-        <v>180.1232894827318</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N21" t="n">
-        <v>380.4238384241749</v>
+        <v>325.644323977266</v>
       </c>
       <c r="O21" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P21" t="n">
-        <v>235.7389829927417</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.872432167215351</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L22" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M22" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N22" t="n">
-        <v>78.56464550722723</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O22" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P22" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K23" t="n">
-        <v>167.863300254996</v>
+        <v>167.8633002549965</v>
       </c>
       <c r="L23" t="n">
         <v>261.0539417397704</v>
@@ -36376,7 +36376,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.17844238427582</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K24" t="n">
         <v>169.9628154850614</v>
@@ -36443,19 +36443,19 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M24" t="n">
-        <v>380.423838424175</v>
+        <v>221.2891269264858</v>
       </c>
       <c r="N24" t="n">
         <v>380.423838424175</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>315.1227627601127</v>
       </c>
       <c r="P24" t="n">
-        <v>235.7389829927417</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>24.60426532046207</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.872432167215351</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L25" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M25" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N25" t="n">
-        <v>78.56464550722723</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O25" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P25" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K27" t="n">
         <v>169.9628154850614</v>
@@ -36732,7 +36732,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.428587260239652</v>
       </c>
       <c r="E28" t="n">
         <v>3.610097631882837</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>72.59299775914424</v>
+        <v>72.59299775914423</v>
       </c>
       <c r="K28" t="n">
-        <v>153.9164924456674</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L28" t="n">
-        <v>61.04268762206326</v>
+        <v>211.0867479005153</v>
       </c>
       <c r="M28" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N28" t="n">
-        <v>78.56464550722723</v>
+        <v>228.6087057856792</v>
       </c>
       <c r="O28" t="n">
-        <v>149.7104082699787</v>
+        <v>65.55839068873843</v>
       </c>
       <c r="P28" t="n">
-        <v>174.5364033308399</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>82.72343032100078</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K30" t="n">
         <v>169.9628154850614</v>
@@ -36972,10 +36972,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>3.610097631882837</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>4.623012255520763</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>72.59299775914424</v>
+        <v>24.10336573305766</v>
       </c>
       <c r="K31" t="n">
-        <v>3.872432167215351</v>
+        <v>153.9164924456674</v>
       </c>
       <c r="L31" t="n">
         <v>211.0867479005153</v>
       </c>
       <c r="M31" t="n">
-        <v>74.85501901293546</v>
+        <v>224.8990792913875</v>
       </c>
       <c r="N31" t="n">
-        <v>78.56464550722723</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O31" t="n">
-        <v>149.7104082699787</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P31" t="n">
-        <v>174.5364033308399</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>180.6690037191344</v>
+        <v>180.6690037191337</v>
       </c>
       <c r="K32" t="n">
-        <v>317.907360533448</v>
+        <v>317.9073605334481</v>
       </c>
       <c r="L32" t="n">
         <v>411.0980020182224</v>
@@ -37078,10 +37078,10 @@
         <v>457.2911585300419</v>
       </c>
       <c r="N32" t="n">
-        <v>447.482942295883</v>
+        <v>447.4829422958831</v>
       </c>
       <c r="O32" t="n">
-        <v>385.2630835770077</v>
+        <v>385.2630835770078</v>
       </c>
       <c r="P32" t="n">
         <v>312.7431224494998</v>
@@ -37090,7 +37090,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R32" t="n">
-        <v>31.68472776362636</v>
+        <v>31.68472776362608</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K33" t="n">
         <v>169.9628154850614</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.428587260239624</v>
+        <v>1.428587260239681</v>
       </c>
       <c r="E34" t="n">
-        <v>3.610097631882809</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>4.623012255520734</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>72.59299775914421</v>
+        <v>72.59299775914425</v>
       </c>
       <c r="K34" t="n">
-        <v>153.9164924456673</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L34" t="n">
-        <v>70.21198840578492</v>
+        <v>211.0867479005153</v>
       </c>
       <c r="M34" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N34" t="n">
-        <v>78.56464550722723</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O34" t="n">
-        <v>56.38908990501707</v>
+        <v>73.79150057614135</v>
       </c>
       <c r="P34" t="n">
         <v>174.5364033308399</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.72343032100076</v>
+        <v>82.72343032100081</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K35" t="n">
         <v>167.863300254996</v>
@@ -37324,7 +37324,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.17844238427582</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>24.61033006392658</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>155.5129594188052</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>290.5606228478076</v>
+        <v>90.2600739063646</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N36" t="n">
         <v>380.4238384241749</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.872432167215351</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L37" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M37" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N37" t="n">
-        <v>78.56464550722723</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O37" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P37" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K38" t="n">
-        <v>167.8633002549969</v>
+        <v>167.863300254996</v>
       </c>
       <c r="L38" t="n">
         <v>261.0539417397704</v>
@@ -37561,7 +37561,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.17844238427582</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K39" t="n">
-        <v>90.26007390636492</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M39" t="n">
-        <v>380.4238384241751</v>
+        <v>325.6443239772659</v>
       </c>
       <c r="N39" t="n">
-        <v>380.4238384241751</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O39" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P39" t="n">
-        <v>235.7389829927417</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.872432167215351</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L40" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M40" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N40" t="n">
-        <v>78.56464550722723</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O40" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P40" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,22 +37774,22 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>29.7627680560439</v>
       </c>
       <c r="J41" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K41" t="n">
         <v>167.863300254996</v>
       </c>
       <c r="L41" t="n">
-        <v>261.0539417397704</v>
+        <v>307.2088070167777</v>
       </c>
       <c r="M41" t="n">
-        <v>431.3807775427111</v>
+        <v>307.2470982515899</v>
       </c>
       <c r="N41" t="n">
-        <v>375.074092973443</v>
+        <v>297.4388820174311</v>
       </c>
       <c r="O41" t="n">
         <v>235.2190232985557</v>
@@ -37798,13 +37798,13 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.17844238427582</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>102.5406826003573</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>23.31057431372456</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K42" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L42" t="n">
-        <v>153.2795898854025</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M42" t="n">
         <v>391.5748062873361</v>
@@ -37874,7 +37874,7 @@
         <v>315.1227627601127</v>
       </c>
       <c r="P42" t="n">
-        <v>235.7389829927417</v>
+        <v>98.45795003033658</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.872432167215351</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L43" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M43" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N43" t="n">
-        <v>78.56464550722723</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O43" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P43" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>29.76276805604393</v>
       </c>
       <c r="J44" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K44" t="n">
-        <v>369.6321905021293</v>
+        <v>214.0181655320034</v>
       </c>
       <c r="L44" t="n">
         <v>261.0539417397704</v>
@@ -38035,13 +38035,13 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q44" t="n">
-        <v>44.17844238427582</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>102.5406826003574</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>23.31057431372459</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>169.9628154850614</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M45" t="n">
-        <v>174.548906338077</v>
+        <v>391.5748062873361</v>
       </c>
       <c r="N45" t="n">
         <v>417.8042963309015</v>
@@ -38114,7 +38114,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q45" t="n">
-        <v>104.3551970507805</v>
+        <v>57.29211258658278</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.872432167215351</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L46" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M46" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N46" t="n">
-        <v>78.56464550722723</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O46" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P46" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
